--- a/results/TreebeardComparisonResults.xlsx
+++ b/results/TreebeardComparisonResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Copied Files\OldLaptop_E\PhDResearch\treebeard\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{546E5761-D1B7-45F4-BB8E-9777A1C0D5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F8831-E1F4-4C57-8D99-3160756A6AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{04E4BA04-C238-410C-B755-734F8EA30249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{04E4BA04-C238-410C-B755-734F8EA30249}"/>
   </bookViews>
   <sheets>
     <sheet name="20240313-2 - deep" sheetId="7" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="40">
   <si>
     <t>abalone</t>
   </si>
@@ -171,6 +171,12 @@
   <si>
     <t>Speedup vs XGB (AT)</t>
   </si>
+  <si>
+    <t>Speedup (4060)3</t>
+  </si>
+  <si>
+    <t>Speedup(AT)</t>
+  </si>
 </sst>
 </file>
 
@@ -218,7 +224,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="37">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
@@ -266,21 +299,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -1384,7 +1402,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'holmes-20240314-2'!$T$2</c:f>
+              <c:f>'holmes-20240314-2'!$V$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1417,9 +1435,28 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'holmes-20240314-2'!$O$3:$O$9</c:f>
+              <c:f>'holmes-20240314-2'!$Q$3:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1449,7 +1486,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'holmes-20240314-2'!$T$3:$T$9</c:f>
+              <c:f>'holmes-20240314-2'!$V$3:$V$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1744,7 +1781,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'holmes-20240314-2'!$R$2</c:f>
+              <c:f>'holmes-20240314-2'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1777,9 +1814,37 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'holmes-20240314-2'!$O$3:$O$9</c:f>
+              <c:f>'holmes-20240314-2'!$Q$3:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1809,7 +1874,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'holmes-20240314-2'!$R$3:$R$9</c:f>
+              <c:f>'holmes-20240314-2'!$T$3:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1849,7 +1914,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'holmes-20240314-2'!$S$2</c:f>
+              <c:f>'holmes-20240314-2'!$U$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1882,9 +1947,28 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>'holmes-20240314-2'!$O$3:$O$9</c:f>
+              <c:f>'holmes-20240314-2'!$Q$3:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1914,7 +1998,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'holmes-20240314-2'!$S$3:$S$9</c:f>
+              <c:f>'holmes-20240314-2'!$U$3:$U$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2161,6 +2245,367 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>T400 - Treebeard (AT) vs Tahoe Speedup</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'holmes-20240314-2'!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tahoe Speedup (AT)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'holmes-20240314-2'!$Q$4:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'holmes-20240314-2'!$W$4:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1433127617232186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4966496650621854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1637677945761413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4676930945165232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5832987117955089</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5074528972376151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3149-48AB-AB20-FA97D61812C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="747932144"/>
+        <c:axId val="747932624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="747932144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747932624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="747932624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="747932144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2743,6 +3188,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4808,6 +5293,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5404,13 +6405,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>375285</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>386715</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -5440,13 +6441,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
@@ -5469,6 +6470,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3075DDF-396C-1850-7524-F45D038B8C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5525,57 +6562,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}" name="Table5" displayName="Table5" ref="A1:P57" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}" name="Table5" displayName="Table5" ref="A1:P57" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="A1:P57" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{E2375FC3-1089-4119-8184-3734B94F546B}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{75838CF2-A86D-4A18-96B2-661BE69343B2}" name="Batch size"/>
-    <tableColumn id="3" xr3:uid="{6C5A6301-02FB-4FE2-AAEB-2015F3807C11}" name="RAPIDS (Total)" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{68F1A067-8DD9-4516-9299-4A85859FA013}" name="TB (4060)" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{1C7F1EAC-83E3-4978-9C19-4A3F0F05D1C5}" name="TB (AT)" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{6C5A6301-02FB-4FE2-AAEB-2015F3807C11}" name="RAPIDS (Total)" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{68F1A067-8DD9-4516-9299-4A85859FA013}" name="TB (4060)" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{1C7F1EAC-83E3-4978-9C19-4A3F0F05D1C5}" name="TB (AT)" dataDxfId="33"/>
     <tableColumn id="6" xr3:uid="{3EBEE837-62CE-4E37-8D5E-7D4E787B098A}" name="Speedup (4060)"/>
     <tableColumn id="7" xr3:uid="{EC6BF235-4783-4F12-8893-207E5E311171}" name="Speedup (AT)"/>
-    <tableColumn id="8" xr3:uid="{4720ED76-00AB-4152-B308-94B20FAE299F}" name="RAPIDS (kernel)" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{D4514ED5-0334-498D-999D-AD0834D7F673}" name="TB Kernel(4060)" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{CB03677E-F369-4ED7-AA49-3E50F95C684C}" name="TB Kernel (AT)" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{4720ED76-00AB-4152-B308-94B20FAE299F}" name="RAPIDS (kernel)" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{D4514ED5-0334-498D-999D-AD0834D7F673}" name="TB Kernel(4060)" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{CB03677E-F369-4ED7-AA49-3E50F95C684C}" name="TB Kernel (AT)" dataDxfId="30"/>
     <tableColumn id="11" xr3:uid="{85303999-08FC-4FC6-A135-69C1DFA93300}" name="Speedup (4060)2"/>
     <tableColumn id="12" xr3:uid="{D14B419F-D760-426A-A16A-04D24839BF35}" name="Speedup (AT)2"/>
-    <tableColumn id="13" xr3:uid="{09712D9D-4BD0-48F2-86D4-2121EA2ADAB2}" name="Tahoe" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{4B2C9AD2-D289-4BC2-B164-241F3A7692CA}" name="Tahoe Speedup" dataDxfId="24">
+    <tableColumn id="13" xr3:uid="{09712D9D-4BD0-48F2-86D4-2121EA2ADAB2}" name="Tahoe" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{4B2C9AD2-D289-4BC2-B164-241F3A7692CA}" name="Tahoe Speedup" dataDxfId="28">
       <calculatedColumnFormula>M2/I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3DCAFEBE-140A-4DBE-8E0E-C7E4F0C8AA80}" name="Tahoe Speedup (AT)" dataDxfId="23">
+    <tableColumn id="15" xr3:uid="{3DCAFEBE-140A-4DBE-8E0E-C7E4F0C8AA80}" name="Tahoe Speedup (AT)" dataDxfId="27">
       <calculatedColumnFormula>M2/J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{484BFD10-0C06-4309-858A-3018C099A1D0}" name="Tahoe-2" dataDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{484BFD10-0C06-4309-858A-3018C099A1D0}" name="Tahoe-2" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{874B55A2-157C-4049-BF6C-BE43E5D16616}" name="Table6" displayName="Table6" ref="A1:L58" totalsRowCount="1" headerRowDxfId="14">
-  <autoFilter ref="A1:L57" xr:uid="{874B55A2-157C-4049-BF6C-BE43E5D16616}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{874B55A2-157C-4049-BF6C-BE43E5D16616}" name="Table6" displayName="Table6" ref="A1:O58" totalsRowCount="1" headerRowDxfId="25">
+  <autoFilter ref="A1:O57" xr:uid="{874B55A2-157C-4049-BF6C-BE43E5D16616}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{E2D590CB-B8EC-4A13-AAF2-5488EA5BF7F1}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{6304E35B-EF5B-4F15-AE1E-313B2235BC54}" name="Batch size"/>
-    <tableColumn id="3" xr3:uid="{321E3803-58DF-4042-94C5-066AF42AA77C}" name="RAPIDS (Total)" dataDxfId="21" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{96494333-E5FA-4355-90A6-59C5F9E1F5D4}" name="TB (4060)" dataDxfId="20" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{F2D794E9-FCC1-4E3D-93E6-F3CDAF43106D}" name="TB (AT)" dataDxfId="19" totalsRowDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{321E3803-58DF-4042-94C5-066AF42AA77C}" name="RAPIDS (Total)" dataDxfId="15" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{96494333-E5FA-4355-90A6-59C5F9E1F5D4}" name="TB (4060)" dataDxfId="14" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{F2D794E9-FCC1-4E3D-93E6-F3CDAF43106D}" name="TB (AT)" dataDxfId="13" totalsRowDxfId="4"/>
     <tableColumn id="6" xr3:uid="{E56BDC2A-1548-453C-B973-912294AA8759}" name="Speedup (4060)" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(F50:F57)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{C9F5C755-68BD-4B6A-A488-55B0C9A7521B}" name="Speedup (AT)" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(G50:G57)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AF39F754-9B25-44A4-A2CA-41B7611C11FE}" name="RAPIDS (kernel)" dataDxfId="18" totalsRowDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{3F4C4175-3133-4FE7-9F20-D1DF972385E0}" name="TB Kernel(4060)" dataDxfId="17" totalsRowDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{55231866-9A4A-4089-9017-7BE297219880}" name="TB Kernel (AT)" dataDxfId="16" totalsRowDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{AF39F754-9B25-44A4-A2CA-41B7611C11FE}" name="RAPIDS (kernel)" dataDxfId="12" totalsRowDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{3F4C4175-3133-4FE7-9F20-D1DF972385E0}" name="TB Kernel(4060)" dataDxfId="11" totalsRowDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{55231866-9A4A-4089-9017-7BE297219880}" name="TB Kernel (AT)" dataDxfId="10" totalsRowDxfId="1"/>
     <tableColumn id="11" xr3:uid="{205F7818-0F37-4ED8-8828-FE9EB5C08490}" name="Speedup (4060)2" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(K50:K57)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{E8859735-00B1-44B3-B48B-431D7F66BC4F}" name="Speedup (AT)2" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(L50:L57)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{CD077731-21C9-44D7-950B-DC5BF85B6B75}" name="Tahoe" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{144131F0-3499-4AE4-9778-DEB3928BAD9D}" name="Speedup (4060)3" dataDxfId="8">
+      <calculatedColumnFormula>M2/I2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{A4362647-5D8B-4796-860C-729CA410492E}" name="Speedup(AT)" dataDxfId="7">
+      <calculatedColumnFormula>M2/J2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5583,16 +6627,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D1B15D7-F606-4A05-B6D4-F74339745056}" name="Table7" displayName="Table7" ref="O2:T9" totalsRowShown="0">
-  <autoFilter ref="O2:T9" xr:uid="{0D1B15D7-F606-4A05-B6D4-F74339745056}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{0D1B15D7-F606-4A05-B6D4-F74339745056}" name="Table7" displayName="Table7" ref="Q2:W9" totalsRowShown="0">
+  <autoFilter ref="Q2:W9" xr:uid="{0D1B15D7-F606-4A05-B6D4-F74339745056}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{82F43E05-EC66-4DD9-9361-6A87E826A74A}" name="Batch Size"/>
     <tableColumn id="2" xr3:uid="{85AAB8A3-F9D1-4F70-9D18-9E39AAC64C24}" name="Total Speedup"/>
     <tableColumn id="3" xr3:uid="{B39D87CE-EFC6-4FA6-9E3A-52B9668CE1D3}" name="Kernel Speedup"/>
     <tableColumn id="4" xr3:uid="{68131D1D-A4DE-40DC-9F74-BE50159B3E4C}" name="AT Total Speedup"/>
     <tableColumn id="5" xr3:uid="{177C0B75-8D84-4646-864A-60F1C1E42851}" name="AT Kernel Speedup"/>
-    <tableColumn id="6" xr3:uid="{5A4BAD27-80A7-46F2-9D76-FAFC3C512964}" name="AT Speedup" dataDxfId="15">
-      <calculatedColumnFormula>S3/Q3</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{5A4BAD27-80A7-46F2-9D76-FAFC3C512964}" name="AT Speedup" dataDxfId="24">
+      <calculatedColumnFormula>U3/S3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{0506A446-23B0-444E-A0AE-5FBA3154B7CB}" name="Tahoe Speedup (AT)" dataDxfId="0">
+      <calculatedColumnFormula>GEOMEAN(O9:O16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5600,22 +6647,22 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}" name="Table10" displayName="Table10" ref="A1:O57" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}" name="Table10" displayName="Table10" ref="A1:O57" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:O57" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{5E1B41EB-0E5D-4B35-A35A-E5B662D56CE6}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{D79CB92D-FB39-4668-8876-3EB4EC741BF6}" name="Batch size"/>
-    <tableColumn id="3" xr3:uid="{B75C0F4F-C491-4756-9B6E-1DB140F2900E}" name="XGB total" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{4FAB59A6-D2A3-4DB9-AD8D-78ED11DA17B3}" name="RAPIDS (Total)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F7A6F91F-D155-4A95-AE49-CE95AF33A96E}" name="TB (4060)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{0A9FEB80-3810-42C7-AF6B-C1D231CD92F9}" name="TB (AT)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B75C0F4F-C491-4756-9B6E-1DB140F2900E}" name="XGB total" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{4FAB59A6-D2A3-4DB9-AD8D-78ED11DA17B3}" name="RAPIDS (Total)" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{F7A6F91F-D155-4A95-AE49-CE95AF33A96E}" name="TB (4060)" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{0A9FEB80-3810-42C7-AF6B-C1D231CD92F9}" name="TB (AT)" dataDxfId="19"/>
     <tableColumn id="7" xr3:uid="{A67EC704-ED8A-4FEA-B68B-1ADE4DDDBDE0}" name="Speedup vs XGB (4060)"/>
     <tableColumn id="8" xr3:uid="{7F009CCD-9B17-49C6-85C3-A50B5020679A}" name="Speedup vs XGB (AT)"/>
     <tableColumn id="9" xr3:uid="{34C5B7E1-C8E0-4539-A7C5-49B8646A0F4E}" name="Speedup (4060)"/>
     <tableColumn id="10" xr3:uid="{CBE1437A-9AB4-41BE-AD8E-9DA09B7301AE}" name="Speedup (AT)"/>
-    <tableColumn id="11" xr3:uid="{D80EF35B-C38D-47B0-A64D-0008726BD6D4}" name="RAPIDS (kernel)" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{92304DC3-B14A-4A19-9491-A5BF46EF5C80}" name="TB Kernel(4060)" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{507D8400-BD7B-416A-8BA8-3D43DD81CDB1}" name="TB Kernel (AT)" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{D80EF35B-C38D-47B0-A64D-0008726BD6D4}" name="RAPIDS (kernel)" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{92304DC3-B14A-4A19-9491-A5BF46EF5C80}" name="TB Kernel(4060)" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{507D8400-BD7B-416A-8BA8-3D43DD81CDB1}" name="TB Kernel (AT)" dataDxfId="16"/>
     <tableColumn id="14" xr3:uid="{2DB16934-2400-46EB-81FA-972C63EDC37C}" name="Speedup (4060)2"/>
     <tableColumn id="15" xr3:uid="{3F759732-037C-4F50-8D7B-263C80C9E3DB}" name="Speedup (AT)2"/>
   </tableColumns>
@@ -9049,10 +10096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E012CCA-A5BF-4CA6-9836-3078D3226C07}">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9061,14 +10108,16 @@
     <col min="2" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="12" width="10.85546875" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -9105,8 +10154,18 @@
       <c r="L1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9143,26 +10202,39 @@
       <c r="L2">
         <v>2.8041125044808601</v>
       </c>
-      <c r="O2" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N33" si="0">M2/I2</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O33" si="1">M2/J2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>15</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>16</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9199,27 +10271,41 @@
       <c r="L3">
         <v>12.810368521607201</v>
       </c>
-      <c r="O3">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3">
         <v>256</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>2.5511740034734798</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>3.6149675884408401</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>2.7220683744394298</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>4.2902233361009001</v>
       </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T9" si="0">S3/Q3</f>
+      <c r="V3">
+        <f t="shared" ref="V3:V9" si="2">U3/S3</f>
         <v>1.1867944127132002</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W3" t="e">
+        <f t="shared" ref="W3:W9" si="3">GEOMEAN(O9:O16)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9256,27 +10342,41 @@
       <c r="L4">
         <v>2.5258168684026998</v>
       </c>
-      <c r="O4">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4">
         <v>512</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>2.4519557209494098</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>3.19642756802341</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>2.57367514596775</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>3.78310568314589</v>
       </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
+      <c r="V4">
+        <f t="shared" si="2"/>
         <v>1.1835418143027927</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>2.1433127617232186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9313,27 +10413,41 @@
       <c r="L5">
         <v>2.9942040380570201</v>
       </c>
-      <c r="O5">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5">
         <v>1024</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>2.2797134963241601</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>2.86330008043053</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>2.3792471829872501</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>3.30925544907215</v>
       </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
+      <c r="V5">
+        <f t="shared" si="2"/>
         <v>1.1557487361138081</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <f>GEOMEAN(O18:O25)</f>
+        <v>1.4966496650621854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9370,27 +10484,41 @@
       <c r="L6">
         <v>3.2444643501259001</v>
       </c>
-      <c r="O6">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6">
         <v>2048</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>2.1583620868626499</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>2.6689176150671901</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>2.2365109877850502</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>3.0101378825987601</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
+      <c r="V6">
+        <f t="shared" si="2"/>
         <v>1.127849681685652</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <f>GEOMEAN(O26:O33)</f>
+        <v>2.1637677945761413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9427,27 +10555,41 @@
       <c r="L7">
         <v>11.4329383068781</v>
       </c>
-      <c r="O7">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <f>M7/I7</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <f>M7/J7</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="1"/>
+      <c r="Q7">
         <v>4096</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>1.8551953319026</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>2.3113489873513702</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>1.9579388666323301</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>2.5326857205575002</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
+      <c r="V7">
+        <f t="shared" si="2"/>
         <v>1.0957608454704908</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <f>GEOMEAN(O34:O41)</f>
+        <v>2.4676930945165232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9484,27 +10626,41 @@
       <c r="L8">
         <v>0.91751156177584903</v>
       </c>
-      <c r="O8">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1"/>
+      <c r="Q8">
         <v>8192</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>1.95161342485072</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>2.29665367753211</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>2.1819871159753101</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>2.5667604731948299</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
+      <c r="V8">
+        <f t="shared" si="2"/>
         <v>1.1176088490420399</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <f>GEOMEAN(O42:O49)</f>
+        <v>2.5832987117955089</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9541,27 +10697,41 @@
       <c r="L9">
         <v>12.413278121935001</v>
       </c>
-      <c r="O9">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9">
         <v>16384</v>
       </c>
-      <c r="P9">
+      <c r="R9">
         <v>2.0470791911831259</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>2.4892127403180586</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>2.1191621524225304</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>2.6316440592916504</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
+      <c r="V9">
+        <f t="shared" si="2"/>
         <v>1.0572194239032349</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <f>GEOMEAN(O50:O57)</f>
+        <v>2.5074528972376151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -9598,8 +10768,20 @@
       <c r="L10">
         <v>2.1641083826702099</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M10" s="1">
+        <v>5.1199200000000002E-7</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2627806764394309</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1317353757018302</v>
+      </c>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -9636,8 +10818,20 @@
       <c r="L11">
         <v>9.8676202532442794</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <v>1.4581999999999999E-7</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4175256413369923</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3933718908031096</v>
+      </c>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -9674,8 +10868,20 @@
       <c r="L12">
         <v>2.0458663940966799</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M12" s="1">
+        <v>1.325338E-6</v>
+      </c>
+      <c r="N12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0625895534070122</v>
+      </c>
+      <c r="O12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2572158047970805</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -9712,8 +10918,20 @@
       <c r="L13">
         <v>2.8370780932385502</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M13" s="1">
+        <v>1.267103E-6</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0312723543963358</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="1"/>
+        <v>2.630579222187869</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -9750,8 +10968,20 @@
       <c r="L14">
         <v>2.2885638124665499</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <v>3.3417999999999999E-7</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.52436818825750409</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0552108929402924</v>
+      </c>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -9788,8 +11018,20 @@
       <c r="L15">
         <v>8.6728574971965102</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M15" s="1">
+        <v>1.5053399999999999E-7</v>
+      </c>
+      <c r="N15" s="1">
+        <f>M15/I15</f>
+        <v>2.158606588215525</v>
+      </c>
+      <c r="O15" s="1">
+        <f>M15/J15</f>
+        <v>2.1493512678157698</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -9826,8 +11068,20 @@
       <c r="L16">
         <v>0.72589907013812305</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="1">
+        <v>6.9233870999999995E-5</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3573959136976335</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="1"/>
+        <v>2.22110604668066</v>
+      </c>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -9864,8 +11118,20 @@
       <c r="L17">
         <v>8.5880566751004501</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <v>3.99362E-7</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4644021263527969</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4965337036995585</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -9902,8 +11168,20 @@
       <c r="L18">
         <v>1.9026536513635</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="1">
+        <v>4.8023799999999996E-7</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4391552330579449</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1317452247790145</v>
+      </c>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -9940,8 +11218,20 @@
       <c r="L19">
         <v>6.0347821999899303</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1">
+        <v>1.42487E-7</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6267434773243847</v>
+      </c>
+      <c r="O19" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6282389984688823</v>
+      </c>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -9978,8 +11268,20 @@
       <c r="L20">
         <v>1.8416885228720701</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <v>1.3011910000000001E-6</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3278293382850292</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3376975924522485</v>
+      </c>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -10016,8 +11318,20 @@
       <c r="L21">
         <v>2.54386010572034</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <v>1.238727E-6</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5125401903494859</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6940184293025342</v>
+      </c>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -10054,8 +11368,20 @@
       <c r="L22">
         <v>1.64489633904642</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="1">
+        <v>3.3244499999999997E-8</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5394499702935122E-2</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1005485103427107</v>
+      </c>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -10092,8 +11418,20 @@
       <c r="L23">
         <v>5.2452892026288804</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <v>1.4529E-7</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2942210864872039</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2859748780394114</v>
+      </c>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -10130,8 +11468,20 @@
       <c r="L24">
         <v>0.75240852538198399</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="1">
+        <v>3.4335616999999997E-5</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.169506643189516</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1746369716762972</v>
+      </c>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -10168,8 +11518,20 @@
       <c r="L25">
         <v>4.8401521977291502</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="1">
+        <v>3.4672200000000003E-7</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="0"/>
+        <v>4.9523818268770938</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="1"/>
+        <v>4.9774630473477233</v>
+      </c>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -10206,8 +11568,20 @@
       <c r="L26">
         <v>1.77361104591255</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="1">
+        <v>4.7989900000000003E-7</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4114583565255434</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1823752296654546</v>
+      </c>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -10244,8 +11618,20 @@
       <c r="L27">
         <v>4.9418078965979699</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="1">
+        <v>1.3839200000000001E-7</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8843476460037403</v>
+      </c>
+      <c r="O27" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8583137242048737</v>
+      </c>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -10282,8 +11668,20 @@
       <c r="L28">
         <v>1.6869368412757699</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="1">
+        <v>1.3070430000000001E-6</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="0"/>
+        <v>2.194850451670523</v>
+      </c>
+      <c r="O28" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3399604348486478</v>
+      </c>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -10320,8 +11718,20 @@
       <c r="L29">
         <v>2.5408874593893098</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="1">
+        <v>1.230226E-6</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0213300539963437</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8696109245169041</v>
+      </c>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -10358,8 +11768,20 @@
       <c r="L30">
         <v>1.3777930311025099</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="1">
+        <v>3.3144499999999999E-7</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.92042359231759419</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0042908668576067</v>
+      </c>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -10396,8 +11818,20 @@
       <c r="L31">
         <v>4.3189335801137698</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31" s="1">
+        <v>1.4901399999999999E-7</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6359997293581627</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6318415678214309</v>
+      </c>
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -10434,8 +11868,20 @@
       <c r="L32">
         <v>0.78484075652009799</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" s="1">
+        <v>3.6062534000000002E-5</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2586806758687579</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2647270882507207</v>
+      </c>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -10472,8 +11918,20 @@
       <c r="L33">
         <v>3.95427512862081</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33" s="1">
+        <v>3.9159799999999998E-7</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="0"/>
+        <v>5.9808358256816598</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" si="1"/>
+        <v>6.333917401648649</v>
+      </c>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -10510,8 +11968,20 @@
       <c r="L34">
         <v>1.7158071456138699</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" s="1">
+        <v>4.7405399999999999E-7</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" ref="N34:N65" si="4">M34/I34</f>
+        <v>1.1493034448469353</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" ref="O34:O57" si="5">M34/J34</f>
+        <v>1.2110973827051166</v>
+      </c>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -10548,8 +12018,20 @@
       <c r="L35">
         <v>5.0953090287596901</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35" s="1">
+        <v>1.0111999999999999E-7</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="4"/>
+        <v>2.2307123737713748</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" si="5"/>
+        <v>2.661488666484602</v>
+      </c>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -10586,8 +12068,20 @@
       <c r="L36">
         <v>1.6004128876108801</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" s="1">
+        <v>1.2976789999999999E-6</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="4"/>
+        <v>2.3137370544791911</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2982517318090325</v>
+      </c>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -10624,8 +12118,20 @@
       <c r="L37">
         <v>2.9448290912564001</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37" s="1">
+        <v>1.148579E-6</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="4"/>
+        <v>3.217224517373197</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" si="5"/>
+        <v>3.2150231770581983</v>
+      </c>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -10662,8 +12168,20 @@
       <c r="L38">
         <v>1.28091623410449</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="1">
+        <v>3.1489399999999999E-7</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.86735291380307455</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" si="5"/>
+        <v>0.97745607103916976</v>
+      </c>
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -10700,8 +12218,20 @@
       <c r="L39">
         <v>4.3187854332005298</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39" s="1">
+        <v>1.5592300000000001E-7</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="4"/>
+        <v>2.7403416863773646</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3506583319124381</v>
+      </c>
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -10738,8 +12268,20 @@
       <c r="L40">
         <v>1.5773826774292099</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" s="1">
+        <v>3.5330399E-5</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1865305235299424</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1819302184910914</v>
+      </c>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -10776,8 +12318,20 @@
       <c r="L41">
         <v>4.7086873366947204</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41" s="1">
+        <v>3.45248E-7</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="4"/>
+        <v>6.6707272493558172</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" si="5"/>
+        <v>8.0793333076236493</v>
+      </c>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -10814,8 +12368,20 @@
       <c r="L42">
         <v>1.7251048461160401</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" s="1">
+        <v>5.0572400000000001E-7</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="4"/>
+        <v>1.3262259054619026</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3119943148584194</v>
+      </c>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -10852,8 +12418,20 @@
       <c r="L43">
         <v>4.8100122357692099</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43" s="1">
+        <v>1.27199E-7</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="4"/>
+        <v>3.4425554778256386</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4544961145736641</v>
+      </c>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -10890,8 +12468,20 @@
       <c r="L44">
         <v>1.5541979421974701</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" s="1">
+        <v>1.299222E-6</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1944412570088994</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2531785005239588</v>
+      </c>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -10928,8 +12518,20 @@
       <c r="L45">
         <v>2.9291733683782999</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45" s="1">
+        <v>1.091798E-6</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0716361076565462</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0690406353223292</v>
+      </c>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -10966,8 +12568,20 @@
       <c r="L46">
         <v>1.2214203288927701</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" s="1">
+        <v>3.2825500000000002E-7</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="4"/>
+        <v>0.84052651509527643</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0186136677113617</v>
+      </c>
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -11004,8 +12618,20 @@
       <c r="L47">
         <v>4.0958749952908402</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="1">
+        <v>1.5615300000000001E-7</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="4"/>
+        <v>3.475381462400795</v>
+      </c>
+      <c r="O47" s="1">
+        <f t="shared" si="5"/>
+        <v>3.4715734259661311</v>
+      </c>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -11042,8 +12668,20 @@
       <c r="L48">
         <v>2.2265545259281301</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" s="1">
+        <v>3.4860244999999998E-5</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2475666379838264</v>
+      </c>
+      <c r="O48" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2820323606948096</v>
+      </c>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -11080,8 +12718,20 @@
       <c r="L49">
         <v>4.47738548041852</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49" s="1">
+        <v>3.2212500000000001E-7</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="4"/>
+        <v>7.2655506607929521</v>
+      </c>
+      <c r="O49" s="1">
+        <f t="shared" si="5"/>
+        <v>7.8419571847267822</v>
+      </c>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -11118,8 +12768,20 @@
       <c r="L50">
         <v>1.7109005628626399</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="1">
+        <v>4.8919799999999996E-7</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2575359350193687</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="5"/>
+        <v>1.2786789248833876</v>
+      </c>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -11156,8 +12818,20 @@
       <c r="L51">
         <v>4.6066734252416301</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51" s="1">
+        <v>1.11631E-7</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0845330483159361</v>
+      </c>
+      <c r="O51" s="1">
+        <f t="shared" si="5"/>
+        <v>3.0508701022329516</v>
+      </c>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -11194,8 +12868,20 @@
       <c r="L52">
         <v>1.48612678803252</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="1">
+        <v>1.303459E-6</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1993227748696826</v>
+      </c>
+      <c r="O52" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2205758814548968</v>
+      </c>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -11232,8 +12918,20 @@
       <c r="L53">
         <v>2.8927501640876301</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53" s="1">
+        <v>1.0949239999999999E-6</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="4"/>
+        <v>2.9847579622001907</v>
+      </c>
+      <c r="O53" s="1">
+        <f t="shared" si="5"/>
+        <v>3.1177251828743775</v>
+      </c>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -11270,8 +12968,20 @@
       <c r="L54">
         <v>1.21077611633966</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" s="1">
+        <v>3.2901699999999999E-7</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="4"/>
+        <v>0.84780251567331943</v>
+      </c>
+      <c r="O54" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0345162358552891</v>
+      </c>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -11308,8 +13018,20 @@
       <c r="L55">
         <v>3.7555328665768202</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55" s="1">
+        <v>1.5732699999999999E-7</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" si="4"/>
+        <v>3.6218656549902346</v>
+      </c>
+      <c r="O55" s="1">
+        <f t="shared" si="5"/>
+        <v>3.5102543248419091</v>
+      </c>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -11346,8 +13068,20 @@
       <c r="L56">
         <v>3.5378317641086401</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" s="1">
+        <v>3.0722546000000002E-5</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9259080719716639</v>
+      </c>
+      <c r="O56" s="1">
+        <f t="shared" si="5"/>
+        <v>2.053171791489989</v>
+      </c>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -11384,8 +13118,20 @@
       <c r="L57">
         <v>4.2205166387267496</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57" s="1">
+        <v>3.2071000000000002E-7</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" si="4"/>
+        <v>6.6492197229973051</v>
+      </c>
+      <c r="O57" s="1">
+        <f t="shared" si="5"/>
+        <v>7.7601910173549804</v>
+      </c>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -11423,7 +13169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91867BA-EC23-43F1-8D56-2CF4F5197532}">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14171,23 +15917,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fa0ea87a-dbc3-4034-822b-3be66bb1e531" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099D54ACDED4E3145A16FA21A42E9B07A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53180cc22209dee855e9c7995086d4f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fa0ea87a-dbc3-4034-822b-3be66bb1e531" xmlns:ns4="7581f031-74d9-476d-ad66-b7e2309b571d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24aba60c41fd01c4f52a557d4e076795" ns3:_="" ns4:_="">
     <xsd:import namespace="fa0ea87a-dbc3-4034-822b-3be66bb1e531"/>
@@ -14420,32 +16149,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E400D861-C791-4665-80C3-5EFD5FFDF0DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7581f031-74d9-476d-ad66-b7e2309b571d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="fa0ea87a-dbc3-4034-822b-3be66bb1e531"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E14463-0D0F-4755-9C80-F057C9F40301}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fa0ea87a-dbc3-4034-822b-3be66bb1e531" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B81907-87F3-49C0-BBBD-39556EDA75E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14462,4 +16183,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E14463-0D0F-4755-9C80-F057C9F40301}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E400D861-C791-4665-80C3-5EFD5FFDF0DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7581f031-74d9-476d-ad66-b7e2309b571d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="fa0ea87a-dbc3-4034-822b-3be66bb1e531"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/results/TreebeardComparisonResults.xlsx
+++ b/results/TreebeardComparisonResults.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Copied Files\OldLaptop_E\PhDResearch\treebeard\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887F8831-E1F4-4C57-8D99-3160756A6AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CF9C40-A98E-465D-9A68-46856513A083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{04E4BA04-C238-410C-B755-734F8EA30249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{04E4BA04-C238-410C-B755-734F8EA30249}"/>
   </bookViews>
   <sheets>
     <sheet name="20240313-2 - deep" sheetId="7" r:id="rId1"/>
     <sheet name="holmes-20240314-2" sheetId="8" r:id="rId2"/>
     <sheet name="20240403-2-deep-xgb" sheetId="10" r:id="rId3"/>
+    <sheet name="AT vs Full Compile Time" sheetId="11" r:id="rId4"/>
+    <sheet name="AMD Results" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="53">
   <si>
     <t>abalone</t>
   </si>
@@ -177,6 +179,45 @@
   <si>
     <t>Speedup(AT)</t>
   </si>
+  <si>
+    <t>AT Total Time</t>
+  </si>
+  <si>
+    <t>Full Explore</t>
+  </si>
+  <si>
+    <t>BatchSize</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Geomean Speedup</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
 </sst>
 </file>
 
@@ -191,15 +232,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -207,11 +254,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -220,11 +309,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="50">
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -272,33 +557,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -1453,6 +1711,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-4120-45AE-92ED-E211A941E0BA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -1841,6 +2104,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EAAF-4074-AFA7-E41C7DDB4A8C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -1965,6 +2233,11 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-EAAF-4074-AFA7-E41C7DDB4A8C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:xVal>
             <c:numRef>
@@ -2988,6 +3261,676 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AT vs Full Compile Time'!$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Geomean Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AT vs Full Compile Time'!$H$4:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AT vs Full Compile Time'!$I$4:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>93.69821801673973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87.884156689676217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.236147579764904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.111708343231086</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.27330974885237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.480741370761592</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>101.87084508494925</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77FD-4A79-924E-866E385F193D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="177708223"/>
+        <c:axId val="177701023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="177708223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177701023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="177701023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177708223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'AMD Results'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Geomean Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'AMD Results'!$K$5:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'AMD Results'!$L$5:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.1121061041075386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1563265272444769</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.2375959136814931</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1.2853092765775598</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>1.2382285124387828</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.2276748073159514</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>1.4650999799498305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B8E-4810-8514-205166CAC683}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="289595247"/>
+        <c:axId val="289597167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="289595247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289597167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="289597167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="289595247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3228,6 +4171,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5809,6 +6832,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6555,6 +8610,88 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{066075F1-A930-3D0A-9151-06DF19DE429C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1B4399-47E8-531D-D755-A949128C1B93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Ashwin Prasad" id="{04E945DF-40AC-4F03-9612-6EF85DD48A27}" userId="S::ashwin.prasad@ni.com::2db96f7c-a2a7-4de2-83d9-c3fcd84b999f" providerId="AD"/>
@@ -6562,63 +8699,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}" name="Table5" displayName="Table5" ref="A1:P57" totalsRowShown="0" headerRowDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}" name="Table5" displayName="Table5" ref="A1:P57" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:P57" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{E2375FC3-1089-4119-8184-3734B94F546B}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{75838CF2-A86D-4A18-96B2-661BE69343B2}" name="Batch size"/>
-    <tableColumn id="3" xr3:uid="{6C5A6301-02FB-4FE2-AAEB-2015F3807C11}" name="RAPIDS (Total)" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{68F1A067-8DD9-4516-9299-4A85859FA013}" name="TB (4060)" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{1C7F1EAC-83E3-4978-9C19-4A3F0F05D1C5}" name="TB (AT)" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{6C5A6301-02FB-4FE2-AAEB-2015F3807C11}" name="RAPIDS (Total)" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{68F1A067-8DD9-4516-9299-4A85859FA013}" name="TB (4060)" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{1C7F1EAC-83E3-4978-9C19-4A3F0F05D1C5}" name="TB (AT)" dataDxfId="46"/>
     <tableColumn id="6" xr3:uid="{3EBEE837-62CE-4E37-8D5E-7D4E787B098A}" name="Speedup (4060)"/>
     <tableColumn id="7" xr3:uid="{EC6BF235-4783-4F12-8893-207E5E311171}" name="Speedup (AT)"/>
-    <tableColumn id="8" xr3:uid="{4720ED76-00AB-4152-B308-94B20FAE299F}" name="RAPIDS (kernel)" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{D4514ED5-0334-498D-999D-AD0834D7F673}" name="TB Kernel(4060)" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{CB03677E-F369-4ED7-AA49-3E50F95C684C}" name="TB Kernel (AT)" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{4720ED76-00AB-4152-B308-94B20FAE299F}" name="RAPIDS (kernel)" dataDxfId="45"/>
+    <tableColumn id="9" xr3:uid="{D4514ED5-0334-498D-999D-AD0834D7F673}" name="TB Kernel(4060)" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{CB03677E-F369-4ED7-AA49-3E50F95C684C}" name="TB Kernel (AT)" dataDxfId="43"/>
     <tableColumn id="11" xr3:uid="{85303999-08FC-4FC6-A135-69C1DFA93300}" name="Speedup (4060)2"/>
     <tableColumn id="12" xr3:uid="{D14B419F-D760-426A-A16A-04D24839BF35}" name="Speedup (AT)2"/>
-    <tableColumn id="13" xr3:uid="{09712D9D-4BD0-48F2-86D4-2121EA2ADAB2}" name="Tahoe" dataDxfId="29"/>
-    <tableColumn id="14" xr3:uid="{4B2C9AD2-D289-4BC2-B164-241F3A7692CA}" name="Tahoe Speedup" dataDxfId="28">
+    <tableColumn id="13" xr3:uid="{09712D9D-4BD0-48F2-86D4-2121EA2ADAB2}" name="Tahoe" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{4B2C9AD2-D289-4BC2-B164-241F3A7692CA}" name="Tahoe Speedup" dataDxfId="41">
       <calculatedColumnFormula>M2/I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3DCAFEBE-140A-4DBE-8E0E-C7E4F0C8AA80}" name="Tahoe Speedup (AT)" dataDxfId="27">
+    <tableColumn id="15" xr3:uid="{3DCAFEBE-140A-4DBE-8E0E-C7E4F0C8AA80}" name="Tahoe Speedup (AT)" dataDxfId="40">
       <calculatedColumnFormula>M2/J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{484BFD10-0C06-4309-858A-3018C099A1D0}" name="Tahoe-2" dataDxfId="26"/>
+    <tableColumn id="16" xr3:uid="{484BFD10-0C06-4309-858A-3018C099A1D0}" name="Tahoe-2" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{874B55A2-157C-4049-BF6C-BE43E5D16616}" name="Table6" displayName="Table6" ref="A1:O58" totalsRowCount="1" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{874B55A2-157C-4049-BF6C-BE43E5D16616}" name="Table6" displayName="Table6" ref="A1:O58" totalsRowCount="1" headerRowDxfId="38">
   <autoFilter ref="A1:O57" xr:uid="{874B55A2-157C-4049-BF6C-BE43E5D16616}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{E2D590CB-B8EC-4A13-AAF2-5488EA5BF7F1}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{6304E35B-EF5B-4F15-AE1E-313B2235BC54}" name="Batch size"/>
-    <tableColumn id="3" xr3:uid="{321E3803-58DF-4042-94C5-066AF42AA77C}" name="RAPIDS (Total)" dataDxfId="15" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{96494333-E5FA-4355-90A6-59C5F9E1F5D4}" name="TB (4060)" dataDxfId="14" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{F2D794E9-FCC1-4E3D-93E6-F3CDAF43106D}" name="TB (AT)" dataDxfId="13" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{321E3803-58DF-4042-94C5-066AF42AA77C}" name="RAPIDS (Total)" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{96494333-E5FA-4355-90A6-59C5F9E1F5D4}" name="TB (4060)" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{F2D794E9-FCC1-4E3D-93E6-F3CDAF43106D}" name="TB (AT)" dataDxfId="33" totalsRowDxfId="32"/>
     <tableColumn id="6" xr3:uid="{E56BDC2A-1548-453C-B973-912294AA8759}" name="Speedup (4060)" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(F50:F57)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{C9F5C755-68BD-4B6A-A488-55B0C9A7521B}" name="Speedup (AT)" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(G50:G57)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AF39F754-9B25-44A4-A2CA-41B7611C11FE}" name="RAPIDS (kernel)" dataDxfId="12" totalsRowDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{3F4C4175-3133-4FE7-9F20-D1DF972385E0}" name="TB Kernel(4060)" dataDxfId="11" totalsRowDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{55231866-9A4A-4089-9017-7BE297219880}" name="TB Kernel (AT)" dataDxfId="10" totalsRowDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{AF39F754-9B25-44A4-A2CA-41B7611C11FE}" name="RAPIDS (kernel)" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{3F4C4175-3133-4FE7-9F20-D1DF972385E0}" name="TB Kernel(4060)" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="10" xr3:uid="{55231866-9A4A-4089-9017-7BE297219880}" name="TB Kernel (AT)" dataDxfId="27" totalsRowDxfId="26"/>
     <tableColumn id="11" xr3:uid="{205F7818-0F37-4ED8-8828-FE9EB5C08490}" name="Speedup (4060)2" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(K50:K57)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{E8859735-00B1-44B3-B48B-431D7F66BC4F}" name="Speedup (AT)2" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(L50:L57)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{CD077731-21C9-44D7-950B-DC5BF85B6B75}" name="Tahoe" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{144131F0-3499-4AE4-9778-DEB3928BAD9D}" name="Speedup (4060)3" dataDxfId="8">
+    <tableColumn id="13" xr3:uid="{CD077731-21C9-44D7-950B-DC5BF85B6B75}" name="Tahoe" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{144131F0-3499-4AE4-9778-DEB3928BAD9D}" name="Speedup (4060)3" dataDxfId="24">
       <calculatedColumnFormula>M2/I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A4362647-5D8B-4796-860C-729CA410492E}" name="Speedup(AT)" dataDxfId="7">
+    <tableColumn id="15" xr3:uid="{A4362647-5D8B-4796-860C-729CA410492E}" name="Speedup(AT)" dataDxfId="23">
       <calculatedColumnFormula>M2/J2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6635,10 +8772,10 @@
     <tableColumn id="3" xr3:uid="{B39D87CE-EFC6-4FA6-9E3A-52B9668CE1D3}" name="Kernel Speedup"/>
     <tableColumn id="4" xr3:uid="{68131D1D-A4DE-40DC-9F74-BE50159B3E4C}" name="AT Total Speedup"/>
     <tableColumn id="5" xr3:uid="{177C0B75-8D84-4646-864A-60F1C1E42851}" name="AT Kernel Speedup"/>
-    <tableColumn id="6" xr3:uid="{5A4BAD27-80A7-46F2-9D76-FAFC3C512964}" name="AT Speedup" dataDxfId="24">
+    <tableColumn id="6" xr3:uid="{5A4BAD27-80A7-46F2-9D76-FAFC3C512964}" name="AT Speedup" dataDxfId="22">
       <calculatedColumnFormula>U3/S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0506A446-23B0-444E-A0AE-5FBA3154B7CB}" name="Tahoe Speedup (AT)" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{0506A446-23B0-444E-A0AE-5FBA3154B7CB}" name="Tahoe Speedup (AT)" dataDxfId="21">
       <calculatedColumnFormula>GEOMEAN(O9:O16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6647,24 +8784,59 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}" name="Table10" displayName="Table10" ref="A1:O57" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}" name="Table10" displayName="Table10" ref="A1:O57" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A1:O57" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{5E1B41EB-0E5D-4B35-A35A-E5B662D56CE6}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{D79CB92D-FB39-4668-8876-3EB4EC741BF6}" name="Batch size"/>
-    <tableColumn id="3" xr3:uid="{B75C0F4F-C491-4756-9B6E-1DB140F2900E}" name="XGB total" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{4FAB59A6-D2A3-4DB9-AD8D-78ED11DA17B3}" name="RAPIDS (Total)" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{F7A6F91F-D155-4A95-AE49-CE95AF33A96E}" name="TB (4060)" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{0A9FEB80-3810-42C7-AF6B-C1D231CD92F9}" name="TB (AT)" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{B75C0F4F-C491-4756-9B6E-1DB140F2900E}" name="XGB total" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4FAB59A6-D2A3-4DB9-AD8D-78ED11DA17B3}" name="RAPIDS (Total)" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{F7A6F91F-D155-4A95-AE49-CE95AF33A96E}" name="TB (4060)" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{0A9FEB80-3810-42C7-AF6B-C1D231CD92F9}" name="TB (AT)" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{A67EC704-ED8A-4FEA-B68B-1ADE4DDDBDE0}" name="Speedup vs XGB (4060)"/>
     <tableColumn id="8" xr3:uid="{7F009CCD-9B17-49C6-85C3-A50B5020679A}" name="Speedup vs XGB (AT)"/>
     <tableColumn id="9" xr3:uid="{34C5B7E1-C8E0-4539-A7C5-49B8646A0F4E}" name="Speedup (4060)"/>
     <tableColumn id="10" xr3:uid="{CBE1437A-9AB4-41BE-AD8E-9DA09B7301AE}" name="Speedup (AT)"/>
-    <tableColumn id="11" xr3:uid="{D80EF35B-C38D-47B0-A64D-0008726BD6D4}" name="RAPIDS (kernel)" dataDxfId="18"/>
-    <tableColumn id="12" xr3:uid="{92304DC3-B14A-4A19-9491-A5BF46EF5C80}" name="TB Kernel(4060)" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{507D8400-BD7B-416A-8BA8-3D43DD81CDB1}" name="TB Kernel (AT)" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{D80EF35B-C38D-47B0-A64D-0008726BD6D4}" name="RAPIDS (kernel)" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{92304DC3-B14A-4A19-9491-A5BF46EF5C80}" name="TB Kernel(4060)" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{507D8400-BD7B-416A-8BA8-3D43DD81CDB1}" name="TB Kernel (AT)" dataDxfId="13"/>
     <tableColumn id="14" xr3:uid="{2DB16934-2400-46EB-81FA-972C63EDC37C}" name="Speedup (4060)2"/>
     <tableColumn id="15" xr3:uid="{3F759732-037C-4F50-8D7B-263C80C9E3DB}" name="Speedup (AT)2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E4C9273F-99FE-4C2F-AF9B-12CFBABC30E3}" name="Table1" displayName="Table1" ref="A1:E57" totalsRowShown="0">
+  <autoFilter ref="A1:E57" xr:uid="{E4C9273F-99FE-4C2F-AF9B-12CFBABC30E3}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6C14E0F7-642D-42DA-83BF-578EA79ED2A4}" name="Benchmark"/>
+    <tableColumn id="2" xr3:uid="{E4799277-B388-42C7-A788-6F740C295765}" name="BatchSize"/>
+    <tableColumn id="3" xr3:uid="{F4DC01E7-64E1-465D-B058-CABBE8969845}" name="AT Total Time"/>
+    <tableColumn id="4" xr3:uid="{153F4080-F85B-4F53-A692-C2E57A7EC900}" name="Full Explore"/>
+    <tableColumn id="5" xr3:uid="{3CAE03F4-F9D1-40E8-83B1-0A40E750F00E}" name="Speedup" dataDxfId="12">
+      <calculatedColumnFormula>D2/C2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53457ACF-C917-4ED6-B048-1BCE586EE816}" name="Table2" displayName="Table2" ref="A1:H57" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:H57" xr:uid="{53457ACF-C917-4ED6-B048-1BCE586EE816}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{4D0BF7EC-9E1A-436C-A346-4B38EB4E6B14}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{0B2149D5-D9B1-4F29-8814-E05834263FDC}" name="Column2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{DF94E260-7AB5-43A5-9E34-C9A901FD8D89}" name="Column3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{27D622F2-BF93-46A2-8081-14DF20568545}" name="Column4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{34075E23-72D0-4F47-AC91-2D1280255AFE}" name="Column5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{D5942594-DD80-4199-82A4-11CC16628EBD}" name="Column6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{9D1CB8BA-2EAD-4791-B601-75842BCD1D17}" name="Column7" dataDxfId="2">
+      <calculatedColumnFormula>E2/F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C0BD4DAA-37F0-4BE7-83E0-B3819D0B52D7}" name="Column8" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10098,7 +12270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E012CCA-A5BF-4CA6-9836-3078D3226C07}">
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+    <sheetView topLeftCell="D7" workbookViewId="0">
       <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
@@ -10301,7 +12473,7 @@
         <v>1.1867944127132002</v>
       </c>
       <c r="W3" t="e">
-        <f t="shared" ref="W3:W9" si="3">GEOMEAN(O9:O16)</f>
+        <f t="shared" ref="W3:W4" si="3">GEOMEAN(O9:O16)</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -11972,7 +14144,7 @@
         <v>4.7405399999999999E-7</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" ref="N34:N65" si="4">M34/I34</f>
+        <f t="shared" ref="N34:N57" si="4">M34/I34</f>
         <v>1.1493034448469353</v>
       </c>
       <c r="O34" s="1">
@@ -15916,7 +18088,2650 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5CF882-4256-49F6-8CA1-987C2223D73A}">
+  <dimension ref="A1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>256</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1506.3130000000001</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E33" si="0">D2/C2</f>
+        <v>115.87023076923077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>256</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>638.89099999999996</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>91.270142857142858</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>2495.2860000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>113.42209090909091</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+      <c r="I4">
+        <f>GEOMEAN(E2:E9)</f>
+        <v>93.69821801673973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>256</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>2166.3049999999998</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>120.35027777777776</v>
+      </c>
+      <c r="H5">
+        <v>512</v>
+      </c>
+      <c r="I5">
+        <f>GEOMEAN(E10:E17)</f>
+        <v>87.884156689676217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>256</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>474.03699999999998</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>67.719571428571427</v>
+      </c>
+      <c r="H6">
+        <v>1024</v>
+      </c>
+      <c r="I6">
+        <f>GEOMEAN(E18:E25)</f>
+        <v>74.236147579764904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>256</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>648.55100000000004</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>92.650142857142868</v>
+      </c>
+      <c r="H7">
+        <v>2048</v>
+      </c>
+      <c r="I7">
+        <f>GEOMEAN(E26:E33)</f>
+        <v>77.111708343231086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>256</v>
+      </c>
+      <c r="C8">
+        <v>167</v>
+      </c>
+      <c r="D8">
+        <v>17206.338</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>103.03196407185628</v>
+      </c>
+      <c r="H8">
+        <v>4096</v>
+      </c>
+      <c r="I8">
+        <f>GEOMEAN(E34:E41)</f>
+        <v>84.27330974885237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>256</v>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>1018.575</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>63.660937500000003</v>
+      </c>
+      <c r="H9">
+        <v>8192</v>
+      </c>
+      <c r="I9">
+        <f>GEOMEAN(E42:E49)</f>
+        <v>86.480741370761592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>512</v>
+      </c>
+      <c r="C10">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1235.2860000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>112.29872727272728</v>
+      </c>
+      <c r="H10">
+        <v>16384</v>
+      </c>
+      <c r="I10">
+        <f>GEOMEAN(E50:E57)</f>
+        <v>101.87084508494925</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>512</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>603.62699999999995</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>86.232428571428571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>512</v>
+      </c>
+      <c r="C12">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>2178.098</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>103.71895238095237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>512</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>1805.874</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>106.22788235294118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>512</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>456.27600000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>65.182285714285712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>512</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>611.83600000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>87.405142857142863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>512</v>
+      </c>
+      <c r="C16">
+        <v>157</v>
+      </c>
+      <c r="D16">
+        <v>15638.457</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>99.608006369426761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>512</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>881.60299999999995</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>58.773533333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>1024</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="D18">
+        <v>904.36800000000005</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>82.215272727272733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1024</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>513.976</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>73.425142857142859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>1024</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>1653.1610000000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>82.658050000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>1024</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>1426.5229999999999</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>83.913117647058812</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>1024</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>394.12299999999999</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>56.303285714285714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>1024</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>519.98099999999999</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>74.283000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>1024</v>
+      </c>
+      <c r="C24">
+        <v>144</v>
+      </c>
+      <c r="D24">
+        <v>13146.84</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>91.297499999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>1024</v>
+      </c>
+      <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>807.71299999999997</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>57.69378571428571</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>2048</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26">
+        <v>954.98500000000001</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>86.816818181818178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2048</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>529.12199999999996</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>75.588857142857137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2048</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>1748.934</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>83.28257142857143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>2048</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>1482.13</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>92.633125000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>2048</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>434.26100000000002</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>62.037285714285716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>2048</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <v>536.60400000000004</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>76.657714285714292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>2048</v>
+      </c>
+      <c r="C32">
+        <v>157</v>
+      </c>
+      <c r="D32">
+        <v>14674.84</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>93.470318471337578</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>2048</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>833.27700000000004</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>55.5518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>4096</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>875.43700000000001</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ref="E34:E65" si="1">D34/C34</f>
+        <v>79.585181818181823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>4096</v>
+      </c>
+      <c r="C35">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>504.63400000000001</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>72.090571428571437</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>4096</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>1635.31</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>102.206875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>4096</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37">
+        <v>1390.5239999999999</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>86.907749999999993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>4096</v>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>427.12</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>71.186666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>4096</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>510.93700000000001</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>72.991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>4096</v>
+      </c>
+      <c r="C40">
+        <v>131</v>
+      </c>
+      <c r="D40">
+        <v>13166.888999999999</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>100.5106030534351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>4096</v>
+      </c>
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>860.26800000000003</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>95.585333333333338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>8192</v>
+      </c>
+      <c r="C42">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>979.58199999999999</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>89.052909090909097</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>8192</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>524.23500000000001</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>74.890714285714282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>8192</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>1893.326</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>111.37211764705883</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>8192</v>
+      </c>
+      <c r="C45">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>1520.1089999999999</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>89.418176470588236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>8192</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>553.12599999999998</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>69.140749999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>8192</v>
+      </c>
+      <c r="C47">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>531.62599999999998</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>75.946571428571431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>8192</v>
+      </c>
+      <c r="C48">
+        <v>134</v>
+      </c>
+      <c r="D48">
+        <v>14917.700999999999</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>111.32612686567164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>8192</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>805.81899999999996</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>80.58189999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>16384</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>1204.453</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>100.37108333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>16384</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>582.73800000000006</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>83.248285714285728</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>16384</v>
+      </c>
+      <c r="C52">
+        <v>18</v>
+      </c>
+      <c r="D52">
+        <v>3132.038</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>174.00211111111111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>16384</v>
+      </c>
+      <c r="C53">
+        <v>18</v>
+      </c>
+      <c r="D53">
+        <v>1819.4880000000001</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>101.08266666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>16384</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>821.25800000000004</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>82.125799999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55">
+        <v>16384</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>595.79100000000005</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>85.113000000000014</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>16384</v>
+      </c>
+      <c r="C56">
+        <v>145</v>
+      </c>
+      <c r="D56">
+        <v>18958.401999999998</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>130.74759999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>16384</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>863.52499999999998</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>86.352499999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A8B65F-4657-401E-A418-CDF7F4E103E0}">
+  <dimension ref="A1:L57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C2" s="6">
+        <v>5.53536422861119E-8</v>
+      </c>
+      <c r="D2" s="6">
+        <v>5.1956255144129198E-8</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4.0968017578125003E-8</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3.7511393229166597E-8</v>
+      </c>
+      <c r="G2" s="6">
+        <f t="shared" ref="G2:G57" si="0">E2/F2</f>
+        <v>1.0921486527530719</v>
+      </c>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>4096</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.9622072664399901E-8</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2.89174689290424E-8</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.2201741536458301E-8</v>
+      </c>
+      <c r="F3" s="7">
+        <v>9.9772135416666599E-9</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2229608482871102</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2.2353420111661101E-7</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.8577333927775401E-7</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5.4903564453125E-8</v>
+      </c>
+      <c r="F4" s="6">
+        <v>5.1667480468750001E-8</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="0"/>
+        <v>1.062632897037282</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4096</v>
+      </c>
+      <c r="C5" s="7">
+        <v>6.3725068078686798E-8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7.2560311915973805E-8</v>
+      </c>
+      <c r="E5" s="7">
+        <v>4.0017089843749999E-8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4.9114176432291598E-8</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.81477676611186245</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="K5">
+        <v>256</v>
+      </c>
+      <c r="L5">
+        <v>1.1121061041075386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3.8806368441631301E-7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.7681030031914499E-7</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4.0185546874999997E-8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3.1755371093750002E-8</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.265472437918044</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="K6">
+        <v>512</v>
+      </c>
+      <c r="L6">
+        <v>1.1563265272444769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>4096</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3.4797994885593602E-8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3.2842411504437501E-8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1.33052571614583E-8</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1.03206380208333E-8</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2891894023024768</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="K7">
+        <v>1024</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.2375959136814931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4096</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3.31680668750777E-6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2.0860720542259501E-6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3.2926037597656202E-6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1.89578247070312E-6</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7368046232353009</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="K8">
+        <v>2046</v>
+      </c>
+      <c r="L8" s="8">
+        <v>1.2853092765775598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4096</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4.5394117478281201E-8</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3.7666371402641099E-8</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1.7934163411458301E-8</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1.06343587239583E-8</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.686435814042474</v>
+      </c>
+      <c r="H9" s="7">
+        <f>GEOMEAN(G2:G9)</f>
+        <v>1.2382285124387828</v>
+      </c>
+      <c r="K9">
+        <v>4092</v>
+      </c>
+      <c r="L9" s="8">
+        <v>1.2382285124387828</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>8192</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3.5892541442687303E-8</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3.4904563411449302E-8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2.6697998046875E-8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2.6419270833333301E-8</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0105501478560879</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="K10">
+        <v>8192</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1.2276748073159514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>8192</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1.9973182740310801E-8</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1.8512607008839602E-8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>7.1268717447916601E-9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6.3362630208333303E-9</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.124775237605959</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="K11">
+        <v>16384</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1.4650999799498305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4">
+        <v>8192</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.8186144491968001E-7</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.6123958630487301E-7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>4.7516886393229101E-8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4.3720296223958303E-8</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0868381620706016</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>8192</v>
+      </c>
+      <c r="C13" s="7">
+        <v>5.1286673018087898E-8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4.2193229698265503E-8</v>
+      </c>
+      <c r="E13" s="7">
+        <v>3.69504801432291E-8</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2.7829182942708299E-8</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3277601508926344</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8192</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3.5003535837555898E-7</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3.4141722911347902E-7</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3.8081868489583297E-8</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2.7959798177083301E-8</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3620222953109995</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5">
+        <v>8192</v>
+      </c>
+      <c r="C15" s="7">
+        <v>2.4383868246028799E-8</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2.3082005403314999E-8</v>
+      </c>
+      <c r="E15" s="7">
+        <v>7.1799723307291599E-9</v>
+      </c>
+      <c r="F15" s="7">
+        <v>6.5454101562499998E-9</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0969476563471332</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8192</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3.18813777994364E-6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1.5564520435873401E-6</v>
+      </c>
+      <c r="E16" s="6">
+        <v>3.1764782714843699E-6</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1.6553662109375E-6</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9188976134080951</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5">
+        <v>8192</v>
+      </c>
+      <c r="C17" s="7">
+        <v>5.3986489850406797E-8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3.6584485011796103E-8</v>
+      </c>
+      <c r="E17" s="7">
+        <v>7.0534261067708304E-9</v>
+      </c>
+      <c r="F17" s="7">
+        <v>6.42781575520833E-9</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0973286066974743</v>
+      </c>
+      <c r="H17" s="7">
+        <f>GEOMEAN(G10:G17)</f>
+        <v>1.2276748073159514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4">
+        <v>16384</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3.0590114571775001E-8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2.8040036947155901E-8</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2.4611206054687498E-8</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2.1726989746093702E-8</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1327480862420138</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5">
+        <v>16384</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1.8033533706329698E-8</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1.46258389577269E-8</v>
+      </c>
+      <c r="E19" s="7">
+        <v>8.2490030924479098E-9</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4.80906168619791E-9</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7153040719196202</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4">
+        <v>16384</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1.6360141065282101E-7</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1.48661759643194E-7</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4.2771606445312498E-8</v>
+      </c>
+      <c r="F20" s="6">
+        <v>3.9473368326822902E-8</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0835560343161388</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5">
+        <v>16384</v>
+      </c>
+      <c r="C21" s="7">
+        <v>5.57768119809528E-8</v>
+      </c>
+      <c r="D21" s="7">
+        <v>4.0447654707046798E-8</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3.0300191243489499E-8</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2.46176147460937E-8</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2308337568853012</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4">
+        <v>16384</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3.4700060496106703E-7</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3.2277588616125198E-7</v>
+      </c>
+      <c r="E22" s="6">
+        <v>4.1523132324218698E-8</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2.6207071940104101E-8</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5844247086862371</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5">
+        <v>16384</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2.0125929343824499E-8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1.61769276019185E-8</v>
+      </c>
+      <c r="E23" s="7">
+        <v>8.8352457682291606E-9</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4.9148559570312504E-9</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7976611818275885</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4">
+        <v>16384</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.6064944793470201E-6</v>
+      </c>
+      <c r="D24" s="6">
+        <v>8.6624582763761196E-7</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.5971762084960901E-6</v>
+      </c>
+      <c r="F24" s="6">
+        <v>7.84359130859375E-7</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0362817817217995</v>
+      </c>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="5">
+        <v>16384</v>
+      </c>
+      <c r="C25" s="7">
+        <v>3.6472411011345602E-8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3.4699041862040699E-8</v>
+      </c>
+      <c r="E25" s="7">
+        <v>6.3864135742187502E-9</v>
+      </c>
+      <c r="F25" s="7">
+        <v>4.5212809244791602E-9</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4125230616928428</v>
+      </c>
+      <c r="H25" s="7">
+        <f>GEOMEAN(G18:G25)</f>
+        <v>1.4650999799498305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4">
+        <v>256</v>
+      </c>
+      <c r="C26" s="6">
+        <v>4.0058842709948902E-7</v>
+      </c>
+      <c r="D26" s="6">
+        <v>3.4155814798288401E-7</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2.4082493279569799E-7</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1.7423828124999999E-7</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3821585650868442</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="5">
+        <v>256</v>
+      </c>
+      <c r="C27" s="7">
+        <v>2.9815185654868302E-7</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2.66216955678437E-7</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1.25454469086021E-7</v>
+      </c>
+      <c r="F27" s="7">
+        <v>9.4993699596774194E-8</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3206609450789428</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4">
+        <v>256</v>
+      </c>
+      <c r="C28" s="6">
+        <v>5.7091936469077999E-7</v>
+      </c>
+      <c r="D28" s="6">
+        <v>5.7093568787138904E-7</v>
+      </c>
+      <c r="E28" s="6">
+        <v>2.2853011592741901E-7</v>
+      </c>
+      <c r="F28" s="6">
+        <v>2.36762012768817E-7</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96523134456777948</v>
+      </c>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5">
+        <v>256</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4.7681838153831401E-7</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4.4105138870016199E-7</v>
+      </c>
+      <c r="E29" s="7">
+        <v>3.0514070900537598E-7</v>
+      </c>
+      <c r="F29" s="7">
+        <v>2.6838268649193501E-7</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1369612287361375</v>
+      </c>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="4">
+        <v>256</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6.0086313795338296E-7</v>
+      </c>
+      <c r="D30" s="6">
+        <v>6.02886260997864E-7</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.2387495799731101E-7</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1.2982631888440799E-7</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95415905697522063</v>
+      </c>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5">
+        <v>256</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2.7086365447249398E-7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2.7406980754226701E-7</v>
+      </c>
+      <c r="E31" s="7">
+        <v>9.8420488911290297E-8</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1.00978872647849E-7</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="0"/>
+        <v>0.97466416816237644</v>
+      </c>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4">
+        <v>256</v>
+      </c>
+      <c r="C32" s="6">
+        <v>9.7655443354479698E-6</v>
+      </c>
+      <c r="D32" s="6">
+        <v>8.7694660009395696E-6</v>
+      </c>
+      <c r="E32" s="6">
+        <v>9.57122920866935E-6</v>
+      </c>
+      <c r="F32" s="6">
+        <v>8.5775409526209606E-6</v>
+      </c>
+      <c r="G32" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1158476842648892</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="5">
+        <v>256</v>
+      </c>
+      <c r="C33" s="7">
+        <v>3.1764038227578597E-7</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2.98138287278913E-7</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1.3106182795698899E-7</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1.1644300235215E-7</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1255449044557297</v>
+      </c>
+      <c r="H33" s="7">
+        <f>GEOMEAN(G26:G33)</f>
+        <v>1.1121061041075386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="4">
+        <v>512</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1.93169237011008E-7</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1.7583504733112101E-7</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1.0796354166666601E-7</v>
+      </c>
+      <c r="F34" s="6">
+        <v>9.7046440972222196E-8</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1124935709653549</v>
+      </c>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="5">
+        <v>512</v>
+      </c>
+      <c r="C35" s="7">
+        <v>1.5318952500820101E-7</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1.4569998408357299E-7</v>
+      </c>
+      <c r="E35" s="7">
+        <v>6.1756293402777697E-8</v>
+      </c>
+      <c r="F35" s="7">
+        <v>5.5798394097222198E-8</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1067754619456351</v>
+      </c>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4">
+        <v>512</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3.6743184965517701E-7</v>
+      </c>
+      <c r="D36" s="6">
+        <v>3.26122002055247E-7</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1.61329427083333E-7</v>
+      </c>
+      <c r="F36" s="6">
+        <v>1.2017339409722199E-7</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3424720862324584</v>
+      </c>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5">
+        <v>512</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2.5316529596845302E-7</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2.3420113656255901E-7</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1.6122504340277699E-7</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1.4078385416666601E-7</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1451955507050675</v>
+      </c>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4">
+        <v>512</v>
+      </c>
+      <c r="C38" s="6">
+        <v>6.3590063816971195E-7</v>
+      </c>
+      <c r="D38" s="6">
+        <v>8.9092976931068597E-7</v>
+      </c>
+      <c r="E38" s="6">
+        <v>7.7786241319444401E-8</v>
+      </c>
+      <c r="F38" s="6">
+        <v>6.8284939236111105E-8</v>
+      </c>
+      <c r="G38" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1391419863533938</v>
+      </c>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="5">
+        <v>512</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1.5650487815340301E-7</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1.46750722908311E-7</v>
+      </c>
+      <c r="E39" s="7">
+        <v>6.2351779513888795E-8</v>
+      </c>
+      <c r="F39" s="7">
+        <v>5.1069444444444403E-8</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2209214373130262</v>
+      </c>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4">
+        <v>512</v>
+      </c>
+      <c r="C40" s="6">
+        <v>4.7808559611439703E-6</v>
+      </c>
+      <c r="D40" s="6">
+        <v>4.4213382837672996E-6</v>
+      </c>
+      <c r="E40" s="6">
+        <v>4.6848027343749997E-6</v>
+      </c>
+      <c r="F40" s="6">
+        <v>4.3279550781249998E-6</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" si="0"/>
+        <v>1.082451793008119</v>
+      </c>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="5">
+        <v>512</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1.7016370677285701E-7</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1.6232274679673999E-7</v>
+      </c>
+      <c r="E41" s="7">
+        <v>6.5559244791666596E-8</v>
+      </c>
+      <c r="F41" s="7">
+        <v>5.8452907986111099E-8</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1215737086552482</v>
+      </c>
+      <c r="H41" s="7">
+        <f>GEOMEAN(G34:G41)</f>
+        <v>1.1563265272444769</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1.6121742581682501E-7</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1.05348437847126E-7</v>
+      </c>
+      <c r="E42" s="6">
+        <v>1.14046456473214E-7</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5.9813058035714198E-8</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9067150254233316</v>
+      </c>
+      <c r="H42" s="6"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" s="5">
+        <v>1024</v>
+      </c>
+      <c r="C43" s="7">
+        <v>7.8759289213589205E-8</v>
+      </c>
+      <c r="D43" s="7">
+        <v>7.8884186223149301E-8</v>
+      </c>
+      <c r="E43" s="7">
+        <v>3.06924293154761E-8</v>
+      </c>
+      <c r="F43" s="7">
+        <v>3.2066592261904699E-8</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="0"/>
+        <v>0.95714658622889859</v>
+      </c>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C44" s="6">
+        <v>3.2718731312169899E-7</v>
+      </c>
+      <c r="D44" s="6">
+        <v>3.1655998013558801E-7</v>
+      </c>
+      <c r="E44" s="6">
+        <v>8.6066313244047604E-8</v>
+      </c>
+      <c r="F44" s="6">
+        <v>7.7395368303571404E-8</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1120344166651648</v>
+      </c>
+      <c r="H44" s="6"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="5">
+        <v>1024</v>
+      </c>
+      <c r="C45" s="7">
+        <v>1.91529203827182E-7</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1.4919094696995701E-7</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1.3522251674107099E-7</v>
+      </c>
+      <c r="F45" s="7">
+        <v>9.4858398437499998E-8</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4255197111531033</v>
+      </c>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C46" s="6">
+        <v>4.8993194165329099E-7</v>
+      </c>
+      <c r="D46" s="6">
+        <v>6.0427850777549397E-7</v>
+      </c>
+      <c r="E46" s="6">
+        <v>6.0970749627976105E-8</v>
+      </c>
+      <c r="F46" s="6">
+        <v>4.8574218750000001E-8</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2552080341585752</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1024</v>
+      </c>
+      <c r="C47" s="7">
+        <v>8.2189383517418594E-8</v>
+      </c>
+      <c r="D47" s="7">
+        <v>8.2884272116990295E-8</v>
+      </c>
+      <c r="E47" s="7">
+        <v>3.1077241443452302E-8</v>
+      </c>
+      <c r="F47" s="7">
+        <v>3.0610816592261897E-8</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="0"/>
+        <v>1.015237256078569</v>
+      </c>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1024</v>
+      </c>
+      <c r="C48" s="6">
+        <v>4.5174844230392103E-6</v>
+      </c>
+      <c r="D48" s="6">
+        <v>5.0546052599591797E-6</v>
+      </c>
+      <c r="E48" s="6">
+        <v>4.4689543805803497E-6</v>
+      </c>
+      <c r="F48" s="6">
+        <v>4.3458886718749997E-6</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0283177315382666</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="5">
+        <v>1024</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1.12456812833746E-7</v>
+      </c>
+      <c r="D49" s="7">
+        <v>9.6357627106564294E-8</v>
+      </c>
+      <c r="E49" s="7">
+        <v>4.7095889136904699E-8</v>
+      </c>
+      <c r="F49" s="7">
+        <v>3.2442801339285698E-8</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4516591414032811</v>
+      </c>
+      <c r="H49" s="7">
+        <f>GEOMEAN(G42:G49)</f>
+        <v>1.2375959136814931</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="4">
+        <v>2048</v>
+      </c>
+      <c r="C50" s="6">
+        <v>7.6432091494401198E-8</v>
+      </c>
+      <c r="D50" s="6">
+        <v>6.7197252064943304E-8</v>
+      </c>
+      <c r="E50" s="6">
+        <v>5.05219184027777E-8</v>
+      </c>
+      <c r="F50" s="6">
+        <v>4.2914496527777702E-8</v>
+      </c>
+      <c r="G50" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1772692793931734</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="5">
+        <v>2048</v>
+      </c>
+      <c r="C51" s="7">
+        <v>4.3765628813869401E-8</v>
+      </c>
+      <c r="D51" s="7">
+        <v>4.3505634595122598E-8</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1.6238606770833298E-8</v>
+      </c>
+      <c r="F51" s="7">
+        <v>1.6111382378472202E-8</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0078965534658957</v>
+      </c>
+      <c r="H51" s="7"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="4">
+        <v>2048</v>
+      </c>
+      <c r="C52" s="6">
+        <v>2.5473722618901001E-7</v>
+      </c>
+      <c r="D52" s="6">
+        <v>2.29108263738453E-7</v>
+      </c>
+      <c r="E52" s="6">
+        <v>8.2195638020833305E-8</v>
+      </c>
+      <c r="F52" s="6">
+        <v>5.5829264322916602E-8</v>
+      </c>
+      <c r="G52" s="6">
+        <f t="shared" si="0"/>
+        <v>1.4722679766190996</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="5">
+        <v>2048</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1.4656559667653499E-7</v>
+      </c>
+      <c r="D53" s="7">
+        <v>9.5855017813543398E-8</v>
+      </c>
+      <c r="E53" s="7">
+        <v>1.09986707899305E-7</v>
+      </c>
+      <c r="F53" s="7">
+        <v>6.1330566406249994E-8</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7933424447894326</v>
+      </c>
+      <c r="H53" s="7"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="4">
+        <v>2048</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4.6150480759226599E-7</v>
+      </c>
+      <c r="D54" s="6">
+        <v>3.8706503498057502E-7</v>
+      </c>
+      <c r="E54" s="6">
+        <v>4.1399468315972197E-8</v>
+      </c>
+      <c r="F54" s="6">
+        <v>3.4394531249999998E-8</v>
+      </c>
+      <c r="G54" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2036642690390553</v>
+      </c>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="5">
+        <v>2048</v>
+      </c>
+      <c r="C55" s="7">
+        <v>4.8734105399085398E-8</v>
+      </c>
+      <c r="D55" s="7">
+        <v>4.7193348614705901E-8</v>
+      </c>
+      <c r="E55" s="7">
+        <v>1.8193901909722199E-8</v>
+      </c>
+      <c r="F55" s="7">
+        <v>1.6498209635416599E-8</v>
+      </c>
+      <c r="G55" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1027803811308996</v>
+      </c>
+      <c r="H55" s="7"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="4">
+        <v>2048</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3.2728683436289398E-6</v>
+      </c>
+      <c r="D56" s="6">
+        <v>2.3270454645777702E-6</v>
+      </c>
+      <c r="E56" s="6">
+        <v>3.2878735351562502E-6</v>
+      </c>
+      <c r="F56" s="6">
+        <v>2.68965087890625E-6</v>
+      </c>
+      <c r="G56" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2224164708295777</v>
+      </c>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2048</v>
+      </c>
+      <c r="C57" s="12">
+        <v>6.9796870876517494E-8</v>
+      </c>
+      <c r="D57" s="12">
+        <v>6.1156202314628496E-8</v>
+      </c>
+      <c r="E57" s="12">
+        <v>2.5371636284722201E-8</v>
+      </c>
+      <c r="F57" s="12">
+        <v>1.7315809461805499E-8</v>
+      </c>
+      <c r="G57" s="12">
+        <f t="shared" si="0"/>
+        <v>1.4652295834443034</v>
+      </c>
+      <c r="H57" s="12">
+        <f>GEOMEAN(G50:G57)</f>
+        <v>1.2853092765775598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fa0ea87a-dbc3-4034-822b-3be66bb1e531" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010099D54ACDED4E3145A16FA21A42E9B07A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="53180cc22209dee855e9c7995086d4f8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fa0ea87a-dbc3-4034-822b-3be66bb1e531" xmlns:ns4="7581f031-74d9-476d-ad66-b7e2309b571d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24aba60c41fd01c4f52a557d4e076795" ns3:_="" ns4:_="">
     <xsd:import namespace="fa0ea87a-dbc3-4034-822b-3be66bb1e531"/>
@@ -16149,24 +20964,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E400D861-C791-4665-80C3-5EFD5FFDF0DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7581f031-74d9-476d-ad66-b7e2309b571d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="fa0ea87a-dbc3-4034-822b-3be66bb1e531"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fa0ea87a-dbc3-4034-822b-3be66bb1e531" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E14463-0D0F-4755-9C80-F057C9F40301}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B81907-87F3-49C0-BBBD-39556EDA75E2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16183,29 +21006,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E14463-0D0F-4755-9C80-F057C9F40301}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E400D861-C791-4665-80C3-5EFD5FFDF0DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7581f031-74d9-476d-ad66-b7e2309b571d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="fa0ea87a-dbc3-4034-822b-3be66bb1e531"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/results/TreebeardComparisonResults.xlsx
+++ b/results/TreebeardComparisonResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Copied Files\OldLaptop_E\PhDResearch\treebeard\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CF9C40-A98E-465D-9A68-46856513A083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57C8093-C156-41E0-B120-A292B9D9C162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{04E4BA04-C238-410C-B755-734F8EA30249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{04E4BA04-C238-410C-B755-734F8EA30249}"/>
   </bookViews>
   <sheets>
     <sheet name="20240313-2 - deep" sheetId="7" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="55">
   <si>
     <t>abalone</t>
   </si>
@@ -218,13 +218,27 @@
   <si>
     <t>Column8</t>
   </si>
+  <si>
+    <t>Max Speedup of AT</t>
+  </si>
+  <si>
+    <t>AT vs 4060 sched speedup</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -300,14 +314,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -318,19 +329,35 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="51">
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -459,13 +486,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -479,6 +499,22 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -512,24 +548,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -8699,64 +8717,67 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}" name="Table5" displayName="Table5" ref="A1:P57" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}" name="Table5" displayName="Table5" ref="A1:P57" totalsRowShown="0" headerRowDxfId="50">
   <autoFilter ref="A1:P57" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{E2375FC3-1089-4119-8184-3734B94F546B}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{75838CF2-A86D-4A18-96B2-661BE69343B2}" name="Batch size"/>
-    <tableColumn id="3" xr3:uid="{6C5A6301-02FB-4FE2-AAEB-2015F3807C11}" name="RAPIDS (Total)" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{68F1A067-8DD9-4516-9299-4A85859FA013}" name="TB (4060)" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{1C7F1EAC-83E3-4978-9C19-4A3F0F05D1C5}" name="TB (AT)" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{6C5A6301-02FB-4FE2-AAEB-2015F3807C11}" name="RAPIDS (Total)" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{68F1A067-8DD9-4516-9299-4A85859FA013}" name="TB (4060)" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{1C7F1EAC-83E3-4978-9C19-4A3F0F05D1C5}" name="TB (AT)" dataDxfId="47"/>
     <tableColumn id="6" xr3:uid="{3EBEE837-62CE-4E37-8D5E-7D4E787B098A}" name="Speedup (4060)"/>
     <tableColumn id="7" xr3:uid="{EC6BF235-4783-4F12-8893-207E5E311171}" name="Speedup (AT)"/>
-    <tableColumn id="8" xr3:uid="{4720ED76-00AB-4152-B308-94B20FAE299F}" name="RAPIDS (kernel)" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{D4514ED5-0334-498D-999D-AD0834D7F673}" name="TB Kernel(4060)" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{CB03677E-F369-4ED7-AA49-3E50F95C684C}" name="TB Kernel (AT)" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{4720ED76-00AB-4152-B308-94B20FAE299F}" name="RAPIDS (kernel)" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{D4514ED5-0334-498D-999D-AD0834D7F673}" name="TB Kernel(4060)" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{CB03677E-F369-4ED7-AA49-3E50F95C684C}" name="TB Kernel (AT)" dataDxfId="44"/>
     <tableColumn id="11" xr3:uid="{85303999-08FC-4FC6-A135-69C1DFA93300}" name="Speedup (4060)2"/>
     <tableColumn id="12" xr3:uid="{D14B419F-D760-426A-A16A-04D24839BF35}" name="Speedup (AT)2"/>
-    <tableColumn id="13" xr3:uid="{09712D9D-4BD0-48F2-86D4-2121EA2ADAB2}" name="Tahoe" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{4B2C9AD2-D289-4BC2-B164-241F3A7692CA}" name="Tahoe Speedup" dataDxfId="41">
+    <tableColumn id="13" xr3:uid="{09712D9D-4BD0-48F2-86D4-2121EA2ADAB2}" name="Tahoe" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{4B2C9AD2-D289-4BC2-B164-241F3A7692CA}" name="Tahoe Speedup" dataDxfId="42">
       <calculatedColumnFormula>M2/I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{3DCAFEBE-140A-4DBE-8E0E-C7E4F0C8AA80}" name="Tahoe Speedup (AT)" dataDxfId="40">
+    <tableColumn id="15" xr3:uid="{3DCAFEBE-140A-4DBE-8E0E-C7E4F0C8AA80}" name="Tahoe Speedup (AT)" dataDxfId="41">
       <calculatedColumnFormula>M2/J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{484BFD10-0C06-4309-858A-3018C099A1D0}" name="Tahoe-2" dataDxfId="39"/>
+    <tableColumn id="16" xr3:uid="{484BFD10-0C06-4309-858A-3018C099A1D0}" name="Tahoe-2" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{874B55A2-157C-4049-BF6C-BE43E5D16616}" name="Table6" displayName="Table6" ref="A1:O58" totalsRowCount="1" headerRowDxfId="38">
-  <autoFilter ref="A1:O57" xr:uid="{874B55A2-157C-4049-BF6C-BE43E5D16616}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{874B55A2-157C-4049-BF6C-BE43E5D16616}" name="Table6" displayName="Table6" ref="A1:P58" totalsRowCount="1" headerRowDxfId="39">
+  <autoFilter ref="A1:P57" xr:uid="{874B55A2-157C-4049-BF6C-BE43E5D16616}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{E2D590CB-B8EC-4A13-AAF2-5488EA5BF7F1}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{6304E35B-EF5B-4F15-AE1E-313B2235BC54}" name="Batch size"/>
-    <tableColumn id="3" xr3:uid="{321E3803-58DF-4042-94C5-066AF42AA77C}" name="RAPIDS (Total)" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{96494333-E5FA-4355-90A6-59C5F9E1F5D4}" name="TB (4060)" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{F2D794E9-FCC1-4E3D-93E6-F3CDAF43106D}" name="TB (AT)" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{321E3803-58DF-4042-94C5-066AF42AA77C}" name="RAPIDS (Total)" dataDxfId="38" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{96494333-E5FA-4355-90A6-59C5F9E1F5D4}" name="TB (4060)" dataDxfId="37" totalsRowDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{F2D794E9-FCC1-4E3D-93E6-F3CDAF43106D}" name="TB (AT)" dataDxfId="36" totalsRowDxfId="3"/>
     <tableColumn id="6" xr3:uid="{E56BDC2A-1548-453C-B973-912294AA8759}" name="Speedup (4060)" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(F50:F57)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{C9F5C755-68BD-4B6A-A488-55B0C9A7521B}" name="Speedup (AT)" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(G50:G57)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AF39F754-9B25-44A4-A2CA-41B7611C11FE}" name="RAPIDS (kernel)" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{3F4C4175-3133-4FE7-9F20-D1DF972385E0}" name="TB Kernel(4060)" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{55231866-9A4A-4089-9017-7BE297219880}" name="TB Kernel (AT)" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{AF39F754-9B25-44A4-A2CA-41B7611C11FE}" name="RAPIDS (kernel)" dataDxfId="35" totalsRowDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{3F4C4175-3133-4FE7-9F20-D1DF972385E0}" name="TB Kernel(4060)" dataDxfId="34" totalsRowDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{55231866-9A4A-4089-9017-7BE297219880}" name="TB Kernel (AT)" dataDxfId="33" totalsRowDxfId="0"/>
     <tableColumn id="11" xr3:uid="{205F7818-0F37-4ED8-8828-FE9EB5C08490}" name="Speedup (4060)2" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(K50:K57)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{E8859735-00B1-44B3-B48B-431D7F66BC4F}" name="Speedup (AT)2" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(L50:L57)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{CD077731-21C9-44D7-950B-DC5BF85B6B75}" name="Tahoe" dataDxfId="25"/>
-    <tableColumn id="14" xr3:uid="{144131F0-3499-4AE4-9778-DEB3928BAD9D}" name="Speedup (4060)3" dataDxfId="24">
+    <tableColumn id="13" xr3:uid="{CD077731-21C9-44D7-950B-DC5BF85B6B75}" name="Tahoe" dataDxfId="32"/>
+    <tableColumn id="14" xr3:uid="{144131F0-3499-4AE4-9778-DEB3928BAD9D}" name="Speedup (4060)3" dataDxfId="31">
       <calculatedColumnFormula>M2/I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A4362647-5D8B-4796-860C-729CA410492E}" name="Speedup(AT)" dataDxfId="23">
+    <tableColumn id="15" xr3:uid="{A4362647-5D8B-4796-860C-729CA410492E}" name="Speedup(AT)" dataDxfId="30">
       <calculatedColumnFormula>M2/J2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{83BBBE19-393B-4893-834A-216E7C358A2F}" name="AT vs 4060 sched speedup" dataDxfId="6">
+      <calculatedColumnFormula>L2/K2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -8772,10 +8793,10 @@
     <tableColumn id="3" xr3:uid="{B39D87CE-EFC6-4FA6-9E3A-52B9668CE1D3}" name="Kernel Speedup"/>
     <tableColumn id="4" xr3:uid="{68131D1D-A4DE-40DC-9F74-BE50159B3E4C}" name="AT Total Speedup"/>
     <tableColumn id="5" xr3:uid="{177C0B75-8D84-4646-864A-60F1C1E42851}" name="AT Kernel Speedup"/>
-    <tableColumn id="6" xr3:uid="{5A4BAD27-80A7-46F2-9D76-FAFC3C512964}" name="AT Speedup" dataDxfId="22">
+    <tableColumn id="6" xr3:uid="{5A4BAD27-80A7-46F2-9D76-FAFC3C512964}" name="AT Speedup" dataDxfId="29">
       <calculatedColumnFormula>U3/S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0506A446-23B0-444E-A0AE-5FBA3154B7CB}" name="Tahoe Speedup (AT)" dataDxfId="21">
+    <tableColumn id="7" xr3:uid="{0506A446-23B0-444E-A0AE-5FBA3154B7CB}" name="Tahoe Speedup (AT)" dataDxfId="28">
       <calculatedColumnFormula>GEOMEAN(O9:O16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8784,22 +8805,22 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}" name="Table10" displayName="Table10" ref="A1:O57" totalsRowShown="0" headerRowDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}" name="Table10" displayName="Table10" ref="A1:O57" totalsRowShown="0" headerRowDxfId="27">
   <autoFilter ref="A1:O57" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{5E1B41EB-0E5D-4B35-A35A-E5B662D56CE6}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{D79CB92D-FB39-4668-8876-3EB4EC741BF6}" name="Batch size"/>
-    <tableColumn id="3" xr3:uid="{B75C0F4F-C491-4756-9B6E-1DB140F2900E}" name="XGB total" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{4FAB59A6-D2A3-4DB9-AD8D-78ED11DA17B3}" name="RAPIDS (Total)" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{F7A6F91F-D155-4A95-AE49-CE95AF33A96E}" name="TB (4060)" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{0A9FEB80-3810-42C7-AF6B-C1D231CD92F9}" name="TB (AT)" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{B75C0F4F-C491-4756-9B6E-1DB140F2900E}" name="XGB total" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{4FAB59A6-D2A3-4DB9-AD8D-78ED11DA17B3}" name="RAPIDS (Total)" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{F7A6F91F-D155-4A95-AE49-CE95AF33A96E}" name="TB (4060)" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{0A9FEB80-3810-42C7-AF6B-C1D231CD92F9}" name="TB (AT)" dataDxfId="23"/>
     <tableColumn id="7" xr3:uid="{A67EC704-ED8A-4FEA-B68B-1ADE4DDDBDE0}" name="Speedup vs XGB (4060)"/>
     <tableColumn id="8" xr3:uid="{7F009CCD-9B17-49C6-85C3-A50B5020679A}" name="Speedup vs XGB (AT)"/>
     <tableColumn id="9" xr3:uid="{34C5B7E1-C8E0-4539-A7C5-49B8646A0F4E}" name="Speedup (4060)"/>
     <tableColumn id="10" xr3:uid="{CBE1437A-9AB4-41BE-AD8E-9DA09B7301AE}" name="Speedup (AT)"/>
-    <tableColumn id="11" xr3:uid="{D80EF35B-C38D-47B0-A64D-0008726BD6D4}" name="RAPIDS (kernel)" dataDxfId="15"/>
-    <tableColumn id="12" xr3:uid="{92304DC3-B14A-4A19-9491-A5BF46EF5C80}" name="TB Kernel(4060)" dataDxfId="14"/>
-    <tableColumn id="13" xr3:uid="{507D8400-BD7B-416A-8BA8-3D43DD81CDB1}" name="TB Kernel (AT)" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{D80EF35B-C38D-47B0-A64D-0008726BD6D4}" name="RAPIDS (kernel)" dataDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{92304DC3-B14A-4A19-9491-A5BF46EF5C80}" name="TB Kernel(4060)" dataDxfId="21"/>
+    <tableColumn id="13" xr3:uid="{507D8400-BD7B-416A-8BA8-3D43DD81CDB1}" name="TB Kernel (AT)" dataDxfId="20"/>
     <tableColumn id="14" xr3:uid="{2DB16934-2400-46EB-81FA-972C63EDC37C}" name="Speedup (4060)2"/>
     <tableColumn id="15" xr3:uid="{3F759732-037C-4F50-8D7B-263C80C9E3DB}" name="Speedup (AT)2"/>
   </tableColumns>
@@ -8815,7 +8836,7 @@
     <tableColumn id="2" xr3:uid="{E4799277-B388-42C7-A788-6F740C295765}" name="BatchSize"/>
     <tableColumn id="3" xr3:uid="{F4DC01E7-64E1-465D-B058-CABBE8969845}" name="AT Total Time"/>
     <tableColumn id="4" xr3:uid="{153F4080-F85B-4F53-A692-C2E57A7EC900}" name="Full Explore"/>
-    <tableColumn id="5" xr3:uid="{3CAE03F4-F9D1-40E8-83B1-0A40E750F00E}" name="Speedup" dataDxfId="12">
+    <tableColumn id="5" xr3:uid="{3CAE03F4-F9D1-40E8-83B1-0A40E750F00E}" name="Speedup" dataDxfId="19">
       <calculatedColumnFormula>D2/C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8824,19 +8845,19 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53457ACF-C917-4ED6-B048-1BCE586EE816}" name="Table2" displayName="Table2" ref="A1:H57" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53457ACF-C917-4ED6-B048-1BCE586EE816}" name="Table2" displayName="Table2" ref="A1:H57" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A1:H57" xr:uid="{53457ACF-C917-4ED6-B048-1BCE586EE816}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4D0BF7EC-9E1A-436C-A346-4B38EB4E6B14}" name="Column1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{0B2149D5-D9B1-4F29-8814-E05834263FDC}" name="Column2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{DF94E260-7AB5-43A5-9E34-C9A901FD8D89}" name="Column3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{27D622F2-BF93-46A2-8081-14DF20568545}" name="Column4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{34075E23-72D0-4F47-AC91-2D1280255AFE}" name="Column5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{D5942594-DD80-4199-82A4-11CC16628EBD}" name="Column6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{9D1CB8BA-2EAD-4791-B601-75842BCD1D17}" name="Column7" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{4D0BF7EC-9E1A-436C-A346-4B38EB4E6B14}" name="Column1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{0B2149D5-D9B1-4F29-8814-E05834263FDC}" name="Column2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{DF94E260-7AB5-43A5-9E34-C9A901FD8D89}" name="Column3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{27D622F2-BF93-46A2-8081-14DF20568545}" name="Column4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{34075E23-72D0-4F47-AC91-2D1280255AFE}" name="Column5" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{D5942594-DD80-4199-82A4-11CC16628EBD}" name="Column6" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{9D1CB8BA-2EAD-4791-B601-75842BCD1D17}" name="Column7" dataDxfId="8">
       <calculatedColumnFormula>E2/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C0BD4DAA-37F0-4BE7-83E0-B3819D0B52D7}" name="Column8" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{C0BD4DAA-37F0-4BE7-83E0-B3819D0B52D7}" name="Column8" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9623,10 +9644,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="V9" s="3" t="s">
+      <c r="V9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="W9" s="3"/>
+      <c r="W9" s="12"/>
     </row>
     <row r="10" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -12268,10 +12289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E012CCA-A5BF-4CA6-9836-3078D3226C07}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12289,7 +12310,7 @@
     <col min="23" max="23" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -12335,9 +12356,11 @@
       <c r="O1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12383,7 +12406,10 @@
         <f t="shared" ref="O2:O33" si="1">M2/J2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="1"/>
+      <c r="P2" s="1">
+        <f t="shared" ref="P2:P33" si="2">L2/K2</f>
+        <v>1.1018190676186483</v>
+      </c>
       <c r="Q2" t="s">
         <v>12</v>
       </c>
@@ -12406,7 +12432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -12452,7 +12478,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P3" s="1"/>
+      <c r="P3" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3645687005203333</v>
+      </c>
       <c r="Q3">
         <v>256</v>
       </c>
@@ -12469,15 +12498,15 @@
         <v>4.2902233361009001</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V9" si="2">U3/S3</f>
+        <f t="shared" ref="V3:V9" si="3">U3/S3</f>
         <v>1.1867944127132002</v>
       </c>
       <c r="W3" t="e">
-        <f t="shared" ref="W3:W4" si="3">GEOMEAN(O9:O16)</f>
+        <f t="shared" ref="W3:W4" si="4">GEOMEAN(O9:O16)</f>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12523,7 +12552,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2743539836744924</v>
+      </c>
       <c r="Q4">
         <v>512</v>
       </c>
@@ -12540,15 +12572,15 @@
         <v>3.78310568314589</v>
       </c>
       <c r="V4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1835418143027927</v>
       </c>
       <c r="W4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1433127617232186</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -12594,7 +12626,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1523307351790479</v>
+      </c>
       <c r="Q5">
         <v>1024</v>
       </c>
@@ -12611,7 +12646,7 @@
         <v>3.30925544907215</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1557487361138081</v>
       </c>
       <c r="W5">
@@ -12619,7 +12654,7 @@
         <v>1.4966496650621854</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12665,7 +12700,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.92717333901904975</v>
+      </c>
       <c r="Q6">
         <v>2048</v>
       </c>
@@ -12682,7 +12720,7 @@
         <v>3.0101378825987601</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.127849681685652</v>
       </c>
       <c r="W6">
@@ -12690,7 +12728,7 @@
         <v>2.1637677945761413</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12736,7 +12774,10 @@
         <f>M7/J7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="1"/>
+      <c r="P7" s="1">
+        <f t="shared" si="2"/>
+        <v>1.088564919436332</v>
+      </c>
       <c r="Q7">
         <v>4096</v>
       </c>
@@ -12753,7 +12794,7 @@
         <v>2.5326857205575002</v>
       </c>
       <c r="V7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0957608454704908</v>
       </c>
       <c r="W7">
@@ -12761,7 +12802,7 @@
         <v>2.4676930945165232</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12807,7 +12848,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P8" s="1"/>
+      <c r="P8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2751586551583616</v>
+      </c>
       <c r="Q8">
         <v>8192</v>
       </c>
@@ -12824,7 +12868,7 @@
         <v>2.5667604731948299</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1176088490420399</v>
       </c>
       <c r="W8">
@@ -12832,7 +12876,7 @@
         <v>2.5832987117955089</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -12878,7 +12922,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3850056212507793</v>
+      </c>
       <c r="Q9">
         <v>16384</v>
       </c>
@@ -12895,7 +12942,7 @@
         <v>2.6316440592916504</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0572194239032349</v>
       </c>
       <c r="W9">
@@ -12903,7 +12950,7 @@
         <v>2.5074528972376151</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -12951,9 +12998,12 @@
         <f t="shared" si="1"/>
         <v>1.1317353757018302</v>
       </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89622481307909885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -13001,9 +13051,12 @@
         <f t="shared" si="1"/>
         <v>2.3933718908031096</v>
       </c>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99000889582270346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -13051,9 +13104,12 @@
         <f t="shared" si="1"/>
         <v>2.2572158047970805</v>
       </c>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P12" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0943601459963652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -13101,9 +13157,12 @@
         <f t="shared" si="1"/>
         <v>2.630579222187869</v>
       </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2950401340787412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -13151,9 +13210,15 @@
         <f t="shared" si="1"/>
         <v>1.0552108929402924</v>
       </c>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P14" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0123472715741904</v>
+      </c>
+      <c r="X14" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -13201,9 +13266,16 @@
         <f>M15/J15</f>
         <v>2.1493512678157698</v>
       </c>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99571236349861847</v>
+      </c>
+      <c r="X15">
+        <f>MAX(Table6[AT vs 4060 sched speedup])</f>
+        <v>2.0123472715741904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -13251,7 +13323,10 @@
         <f t="shared" si="1"/>
         <v>2.22110604668066</v>
       </c>
-      <c r="P16" s="1"/>
+      <c r="P16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.94218626314525267</v>
+      </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -13301,7 +13376,10 @@
         <f t="shared" si="1"/>
         <v>5.4965337036995585</v>
       </c>
-      <c r="P17" s="1"/>
+      <c r="P17" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5865749711584769</v>
+      </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -13351,7 +13429,10 @@
         <f t="shared" si="1"/>
         <v>1.1317452247790145</v>
       </c>
-      <c r="P18" s="1"/>
+      <c r="P18" s="1">
+        <f t="shared" si="2"/>
+        <v>0.78639551785824935</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -13401,7 +13482,10 @@
         <f t="shared" si="1"/>
         <v>2.6282389984688823</v>
       </c>
-      <c r="P19" s="1"/>
+      <c r="P19" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0005693441926902</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -13451,7 +13535,10 @@
         <f t="shared" si="1"/>
         <v>2.3376975924522485</v>
       </c>
-      <c r="P20" s="1"/>
+      <c r="P20" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0042392515657896</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -13501,7 +13588,10 @@
         <f t="shared" si="1"/>
         <v>2.6940184293025342</v>
       </c>
-      <c r="P21" s="1"/>
+      <c r="P21" s="1">
+        <f t="shared" si="2"/>
+        <v>1.781121881250681</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -13551,7 +13641,10 @@
         <f t="shared" si="1"/>
         <v>0.1005485103427107</v>
       </c>
-      <c r="P22" s="1"/>
+      <c r="P22" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5375683092533625</v>
+      </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -13601,7 +13694,10 @@
         <f t="shared" si="1"/>
         <v>2.2859748780394114</v>
       </c>
-      <c r="P23" s="1"/>
+      <c r="P23" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99640566094681937</v>
+      </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -13651,7 +13747,10 @@
         <f t="shared" si="1"/>
         <v>1.1746369716762972</v>
       </c>
-      <c r="P24" s="1"/>
+      <c r="P24" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0043867459126068</v>
+      </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -13701,7 +13800,10 @@
         <f t="shared" si="1"/>
         <v>4.9774630473477233</v>
       </c>
-      <c r="P25" s="1"/>
+      <c r="P25" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0050644763161256</v>
+      </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -13751,7 +13853,10 @@
         <f t="shared" si="1"/>
         <v>1.1823752296654546</v>
       </c>
-      <c r="P26" s="1"/>
+      <c r="P26" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83769756592465083</v>
+      </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -13801,7 +13906,10 @@
         <f t="shared" si="1"/>
         <v>2.8583137242048737</v>
       </c>
-      <c r="P27" s="1"/>
+      <c r="P27" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99097406935847854</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -13851,7 +13959,10 @@
         <f t="shared" si="1"/>
         <v>2.3399604348486478</v>
       </c>
-      <c r="P28" s="1"/>
+      <c r="P28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.066113836169426</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -13901,7 +14012,10 @@
         <f t="shared" si="1"/>
         <v>2.8696109245169041</v>
       </c>
-      <c r="P29" s="1"/>
+      <c r="P29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.4196646999056142</v>
+      </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -13951,7 +14065,10 @@
         <f t="shared" si="1"/>
         <v>1.0042908668576067</v>
       </c>
-      <c r="P30" s="1"/>
+      <c r="P30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0911181278272513</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -14001,7 +14118,10 @@
         <f t="shared" si="1"/>
         <v>2.6318415678214309</v>
       </c>
-      <c r="P31" s="1"/>
+      <c r="P31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99842254857220913</v>
+      </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -14051,7 +14171,10 @@
         <f t="shared" si="1"/>
         <v>1.2647270882507207</v>
       </c>
-      <c r="P32" s="1"/>
+      <c r="P32" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0048037699298009</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -14101,7 +14224,10 @@
         <f t="shared" si="1"/>
         <v>6.333917401648649</v>
       </c>
-      <c r="P33" s="1"/>
+      <c r="P33" s="1">
+        <f t="shared" si="2"/>
+        <v>1.059035490399328</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -14144,14 +14270,17 @@
         <v>4.7405399999999999E-7</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" ref="N34:N57" si="4">M34/I34</f>
+        <f t="shared" ref="N34:N57" si="5">M34/I34</f>
         <v>1.1493034448469353</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" ref="O34:O57" si="5">M34/J34</f>
+        <f t="shared" ref="O34:O57" si="6">M34/J34</f>
         <v>1.2110973827051166</v>
       </c>
-      <c r="P34" s="1"/>
+      <c r="P34" s="1">
+        <f t="shared" ref="P34:P57" si="7">L34/K34</f>
+        <v>1.0537664253380983</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -14194,14 +14323,17 @@
         <v>1.0111999999999999E-7</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2307123737713748</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.661488666484602</v>
       </c>
-      <c r="P35" s="1"/>
+      <c r="P35" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1931115359282871</v>
+      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -14244,14 +14376,17 @@
         <v>1.2976789999999999E-6</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.3137370544791911</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2982517318090325</v>
       </c>
-      <c r="P36" s="1"/>
+      <c r="P36" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99330722450064846</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -14294,14 +14429,17 @@
         <v>1.148579E-6</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.217224517373197</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.2150231770581983</v>
       </c>
-      <c r="P37" s="1"/>
+      <c r="P37" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99931576416159018</v>
+      </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -14344,14 +14482,17 @@
         <v>3.1489399999999999E-7</v>
       </c>
       <c r="N38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86735291380307455</v>
       </c>
       <c r="O38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.97745607103916976</v>
       </c>
-      <c r="P38" s="1"/>
+      <c r="P38" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1269415891546652</v>
+      </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -14394,14 +14535,17 @@
         <v>1.5592300000000001E-7</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7403416863773646</v>
       </c>
       <c r="O39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.3506583319124381</v>
       </c>
-      <c r="P39" s="1"/>
+      <c r="P39" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2227155279828958</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -14444,14 +14588,17 @@
         <v>3.5330399E-5</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1865305235299424</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.1819302184910914</v>
       </c>
-      <c r="P40" s="1"/>
+      <c r="P40" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99789607097209176</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -14494,14 +14641,17 @@
         <v>3.45248E-7</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6707272493558172</v>
       </c>
       <c r="O41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.0793333076236493</v>
       </c>
-      <c r="P41" s="1"/>
+      <c r="P41" s="1">
+        <f t="shared" si="7"/>
+        <v>1.211162292447779</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -14544,14 +14694,17 @@
         <v>5.0572400000000001E-7</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3262259054619026</v>
       </c>
       <c r="O42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.3119943148584194</v>
       </c>
-      <c r="P42" s="1"/>
+      <c r="P42" s="1">
+        <f t="shared" si="7"/>
+        <v>0.9892691052520749</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -14594,14 +14747,17 @@
         <v>1.27199E-7</v>
       </c>
       <c r="N43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4425554778256386</v>
       </c>
       <c r="O43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4544961145736641</v>
       </c>
-      <c r="P43" s="1"/>
+      <c r="P43" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0034685386553517</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -14644,14 +14800,17 @@
         <v>1.299222E-6</v>
       </c>
       <c r="N44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1944412570088994</v>
       </c>
       <c r="O44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2531785005239588</v>
       </c>
-      <c r="P44" s="1"/>
+      <c r="P44" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0267663776952114</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -14694,14 +14853,17 @@
         <v>1.091798E-6</v>
       </c>
       <c r="N45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0716361076565462</v>
       </c>
       <c r="O45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0690406353223292</v>
       </c>
-      <c r="P45" s="1"/>
+      <c r="P45" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99915501959110897</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -14744,14 +14906,17 @@
         <v>3.2825500000000002E-7</v>
       </c>
       <c r="N46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84052651509527643</v>
       </c>
       <c r="O46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0186136677113617</v>
       </c>
-      <c r="P46" s="1"/>
+      <c r="P46" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2118757105430453</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -14794,14 +14959,17 @@
         <v>1.5615300000000001E-7</v>
       </c>
       <c r="N47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.475381462400795</v>
       </c>
       <c r="O47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4715734259661311</v>
       </c>
-      <c r="P47" s="1"/>
+      <c r="P47" s="1">
+        <f t="shared" si="7"/>
+        <v>0.99890428245766327</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -14844,14 +15012,17 @@
         <v>3.4860244999999998E-5</v>
       </c>
       <c r="N48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2475666379838264</v>
       </c>
       <c r="O48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2820323606948096</v>
       </c>
-      <c r="P48" s="1"/>
+      <c r="P48" s="1">
+        <f t="shared" si="7"/>
+        <v>1.8291867473971402</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -14894,14 +15065,17 @@
         <v>3.2212500000000001E-7</v>
       </c>
       <c r="N49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.2655506607929521</v>
       </c>
       <c r="O49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.8419571847267822</v>
       </c>
-      <c r="P49" s="1"/>
+      <c r="P49" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0793341827542795</v>
+      </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -14944,14 +15118,17 @@
         <v>4.8919799999999996E-7</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2575359350193687</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2786789248833876</v>
       </c>
-      <c r="P50" s="1"/>
+      <c r="P50" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0168130303677489</v>
+      </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -14994,14 +15171,17 @@
         <v>1.11631E-7</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.0845330483159361</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.0508701022329516</v>
       </c>
-      <c r="P51" s="1"/>
+      <c r="P51" s="1">
+        <f t="shared" si="7"/>
+        <v>0.98908653415097481</v>
+      </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -15044,14 +15224,17 @@
         <v>1.303459E-6</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1993227748696826</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.2205758814548968</v>
       </c>
-      <c r="P52" s="1"/>
+      <c r="P52" s="1">
+        <f t="shared" si="7"/>
+        <v>1.009663477697798</v>
+      </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -15094,14 +15277,17 @@
         <v>1.0949239999999999E-6</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9847579622001907</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.1177251828743775</v>
       </c>
-      <c r="P53" s="1"/>
+      <c r="P53" s="1">
+        <f t="shared" si="7"/>
+        <v>1.044548744775327</v>
+      </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -15144,14 +15330,17 @@
         <v>3.2901699999999999E-7</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.84780251567331943</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0345162358552891</v>
       </c>
-      <c r="P54" s="1"/>
+      <c r="P54" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2202325621004755</v>
+      </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -15194,14 +15383,17 @@
         <v>1.5732699999999999E-7</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6218656549902346</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.5102543248419091</v>
       </c>
-      <c r="P55" s="1"/>
+      <c r="P55" s="1">
+        <f t="shared" si="7"/>
+        <v>0.96918402260598802</v>
+      </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -15244,14 +15436,17 @@
         <v>3.0722546000000002E-5</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9259080719716639</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.053171791489989</v>
       </c>
-      <c r="P56" s="1"/>
+      <c r="P56" s="1">
+        <f t="shared" si="7"/>
+        <v>1.0660798515621939</v>
+      </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -15294,14 +15489,17 @@
         <v>3.2071000000000002E-7</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.6492197229973051</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.7601910173549804</v>
       </c>
-      <c r="P57" s="1"/>
+      <c r="P57" s="1">
+        <f t="shared" si="7"/>
+        <v>1.1670829571949937</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
@@ -18768,7 +18966,7 @@
         <v>875.43700000000001</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="1">D34/C34</f>
+        <f t="shared" ref="E34:E57" si="1">D34/C34</f>
         <v>79.585181818181823</v>
       </c>
     </row>
@@ -19199,7 +19397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A8B65F-4657-401E-A418-CDF7F4E103E0}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4:L11"/>
     </sheetView>
   </sheetViews>
@@ -19211,105 +19409,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <v>4096</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>5.53536422861119E-8</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>5.1956255144129198E-8</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>4.0968017578125003E-8</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>3.7511393229166597E-8</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f t="shared" ref="G2:G57" si="0">E2/F2</f>
         <v>1.0921486527530719</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>4096</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>2.9622072664399901E-8</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>2.89174689290424E-8</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>1.2201741536458301E-8</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>9.9772135416666599E-9</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f t="shared" si="0"/>
         <v>1.2229608482871102</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>4096</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2.2353420111661101E-7</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1.8577333927775401E-7</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>5.4903564453125E-8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>5.1667480468750001E-8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f t="shared" si="0"/>
         <v>1.062632897037282</v>
       </c>
-      <c r="H4" s="6"/>
+      <c r="H4" s="5"/>
       <c r="K4" t="s">
         <v>12</v>
       </c>
@@ -19318,29 +19516,29 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>4096</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>6.3725068078686798E-8</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>7.2560311915973805E-8</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>4.0017089843749999E-8</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>4.9114176432291598E-8</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
         <v>0.81477676611186245</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
       <c r="K5">
         <v>256</v>
       </c>
@@ -19349,29 +19547,29 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>4096</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>3.8806368441631301E-7</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>3.7681030031914499E-7</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>4.0185546874999997E-8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>3.1755371093750002E-8</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f t="shared" si="0"/>
         <v>1.265472437918044</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="5"/>
       <c r="K6">
         <v>512</v>
       </c>
@@ -19380,1327 +19578,1327 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>4096</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>3.4797994885593602E-8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>3.2842411504437501E-8</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>1.33052571614583E-8</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>1.03206380208333E-8</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
         <v>1.2891894023024768</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
       <c r="K7">
         <v>1024</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>1.2375959136814931</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>4096</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>3.31680668750777E-6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>2.0860720542259501E-6</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>3.2926037597656202E-6</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>1.89578247070312E-6</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>1.7368046232353009</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="5"/>
       <c r="K8">
         <v>2046</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>1.2853092765775598</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>4096</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>4.5394117478281201E-8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>3.7666371402641099E-8</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>1.7934163411458301E-8</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>1.06343587239583E-8</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>1.686435814042474</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <f>GEOMEAN(G2:G9)</f>
         <v>1.2382285124387828</v>
       </c>
       <c r="K9">
         <v>4092</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>1.2382285124387828</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>8192</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>3.5892541442687303E-8</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>3.4904563411449302E-8</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>2.6697998046875E-8</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>2.6419270833333301E-8</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>1.0105501478560879</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="5"/>
       <c r="K10">
         <v>8192</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>1.2276748073159514</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>8192</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>1.9973182740310801E-8</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>1.8512607008839602E-8</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>7.1268717447916601E-9</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>6.3362630208333303E-9</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>1.124775237605959</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="6"/>
       <c r="K11">
         <v>16384</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>1.4650999799498305</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>8192</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>1.8186144491968001E-7</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>1.6123958630487301E-7</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>4.7516886393229101E-8</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>4.3720296223958303E-8</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>1.0868381620706016</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>8192</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>5.1286673018087898E-8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>4.2193229698265503E-8</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>3.69504801432291E-8</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>2.7829182942708299E-8</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <f t="shared" si="0"/>
         <v>1.3277601508926344</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>8192</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>3.5003535837555898E-7</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>3.4141722911347902E-7</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>3.8081868489583297E-8</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>2.7959798177083301E-8</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>1.3620222953109995</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>8192</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>2.4383868246028799E-8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>2.3082005403314999E-8</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>7.1799723307291599E-9</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>6.5454101562499998E-9</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f t="shared" si="0"/>
         <v>1.0969476563471332</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>8192</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>3.18813777994364E-6</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>1.5564520435873401E-6</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>3.1764782714843699E-6</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <v>1.6553662109375E-6</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>1.9188976134080951</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>8192</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>5.3986489850406797E-8</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>3.6584485011796103E-8</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>7.0534261067708304E-9</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>6.42781575520833E-9</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f t="shared" si="0"/>
         <v>1.0973286066974743</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f>GEOMEAN(G10:G17)</f>
         <v>1.2276748073159514</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>16384</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>3.0590114571775001E-8</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>2.8040036947155901E-8</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>2.4611206054687498E-8</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>2.1726989746093702E-8</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>1.1327480862420138</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>16384</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>1.8033533706329698E-8</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>1.46258389577269E-8</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>8.2490030924479098E-9</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>4.80906168619791E-9</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f t="shared" si="0"/>
         <v>1.7153040719196202</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>16384</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>1.6360141065282101E-7</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>1.48661759643194E-7</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>4.2771606445312498E-8</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>3.9473368326822902E-8</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>1.0835560343161388</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>16384</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>5.57768119809528E-8</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>4.0447654707046798E-8</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>3.0300191243489499E-8</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>2.46176147460937E-8</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <f t="shared" si="0"/>
         <v>1.2308337568853012</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>16384</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>3.4700060496106703E-7</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>3.2277588616125198E-7</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>4.1523132324218698E-8</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <v>2.6207071940104101E-8</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>1.5844247086862371</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>16384</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>2.0125929343824499E-8</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>1.61769276019185E-8</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>8.8352457682291606E-9</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>4.9148559570312504E-9</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="6">
         <f t="shared" si="0"/>
         <v>1.7976611818275885</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>16384</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>1.6064944793470201E-6</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>8.6624582763761196E-7</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>1.5971762084960901E-6</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>7.84359130859375E-7</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>2.0362817817217995</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>16384</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>3.6472411011345602E-8</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>3.4699041862040699E-8</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>6.3864135742187502E-9</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <v>4.5212809244791602E-9</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="6">
         <f t="shared" si="0"/>
         <v>1.4125230616928428</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <f>GEOMEAN(G18:G25)</f>
         <v>1.4650999799498305</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>256</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>4.0058842709948902E-7</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>3.4155814798288401E-7</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>2.4082493279569799E-7</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <v>1.7423828124999999E-7</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <f t="shared" si="0"/>
         <v>1.3821585650868442</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="5"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>256</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>2.9815185654868302E-7</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>2.66216955678437E-7</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>1.25454469086021E-7</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>9.4993699596774194E-8</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <f t="shared" si="0"/>
         <v>1.3206609450789428</v>
       </c>
-      <c r="H27" s="7"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>256</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>5.7091936469077999E-7</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>5.7093568787138904E-7</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>2.2853011592741901E-7</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <v>2.36762012768817E-7</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="5">
         <f t="shared" si="0"/>
         <v>0.96523134456777948</v>
       </c>
-      <c r="H28" s="6"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>256</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>4.7681838153831401E-7</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>4.4105138870016199E-7</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>3.0514070900537598E-7</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <v>2.6838268649193501E-7</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="6">
         <f t="shared" si="0"/>
         <v>1.1369612287361375</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>256</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>6.0086313795338296E-7</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>6.02886260997864E-7</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>1.2387495799731101E-7</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <v>1.2982631888440799E-7</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="5">
         <f t="shared" si="0"/>
         <v>0.95415905697522063</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="5"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>256</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>2.7086365447249398E-7</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>2.7406980754226701E-7</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>9.8420488911290297E-8</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>1.00978872647849E-7</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="6">
         <f t="shared" si="0"/>
         <v>0.97466416816237644</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>256</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>9.7655443354479698E-6</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>8.7694660009395696E-6</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>9.57122920866935E-6</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <v>8.5775409526209606E-6</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="5">
         <f t="shared" si="0"/>
         <v>1.1158476842648892</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>256</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>3.1764038227578597E-7</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>2.98138287278913E-7</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>1.3106182795698899E-7</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>1.1644300235215E-7</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <f t="shared" si="0"/>
         <v>1.1255449044557297</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <f>GEOMEAN(G26:G33)</f>
         <v>1.1121061041075386</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>512</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>1.93169237011008E-7</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>1.7583504733112101E-7</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>1.0796354166666601E-7</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <v>9.7046440972222196E-8</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="5">
         <f t="shared" si="0"/>
         <v>1.1124935709653549</v>
       </c>
-      <c r="H34" s="6"/>
+      <c r="H34" s="5"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>512</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>1.5318952500820101E-7</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>1.4569998408357299E-7</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>6.1756293402777697E-8</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <v>5.5798394097222198E-8</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="6">
         <f t="shared" si="0"/>
         <v>1.1067754619456351</v>
       </c>
-      <c r="H35" s="7"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="3">
         <v>512</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>3.6743184965517701E-7</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>3.26122002055247E-7</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>1.61329427083333E-7</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <v>1.2017339409722199E-7</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="5">
         <f t="shared" si="0"/>
         <v>1.3424720862324584</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" s="5"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>512</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>2.5316529596845302E-7</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>2.3420113656255901E-7</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>1.6122504340277699E-7</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>1.4078385416666601E-7</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="6">
         <f t="shared" si="0"/>
         <v>1.1451955507050675</v>
       </c>
-      <c r="H37" s="7"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>512</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>6.3590063816971195E-7</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>8.9092976931068597E-7</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>7.7786241319444401E-8</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="5">
         <v>6.8284939236111105E-8</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="5">
         <f t="shared" si="0"/>
         <v>1.1391419863533938</v>
       </c>
-      <c r="H38" s="6"/>
+      <c r="H38" s="5"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>512</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>1.5650487815340301E-7</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>1.46750722908311E-7</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>6.2351779513888795E-8</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <v>5.1069444444444403E-8</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="6">
         <f t="shared" si="0"/>
         <v>1.2209214373130262</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>512</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>4.7808559611439703E-6</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>4.4213382837672996E-6</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>4.6848027343749997E-6</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <v>4.3279550781249998E-6</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="5">
         <f t="shared" si="0"/>
         <v>1.082451793008119</v>
       </c>
-      <c r="H40" s="6"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>512</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>1.7016370677285701E-7</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>1.6232274679673999E-7</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>6.5559244791666596E-8</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <v>5.8452907986111099E-8</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="6">
         <f t="shared" si="0"/>
         <v>1.1215737086552482</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <f>GEOMEAN(G34:G41)</f>
         <v>1.1563265272444769</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <v>1024</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>1.6121742581682501E-7</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>1.05348437847126E-7</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>1.14046456473214E-7</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <v>5.9813058035714198E-8</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="5">
         <f t="shared" si="0"/>
         <v>1.9067150254233316</v>
       </c>
-      <c r="H42" s="6"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>1024</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>7.8759289213589205E-8</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>7.8884186223149301E-8</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>3.06924293154761E-8</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <v>3.2066592261904699E-8</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="6">
         <f t="shared" si="0"/>
         <v>0.95714658622889859</v>
       </c>
-      <c r="H43" s="7"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>1024</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>3.2718731312169899E-7</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>3.1655998013558801E-7</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>8.6066313244047604E-8</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <v>7.7395368303571404E-8</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="5">
         <f t="shared" si="0"/>
         <v>1.1120344166651648</v>
       </c>
-      <c r="H44" s="6"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>1024</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>1.91529203827182E-7</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>1.4919094696995701E-7</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>1.3522251674107099E-7</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <v>9.4858398437499998E-8</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <f t="shared" si="0"/>
         <v>1.4255197111531033</v>
       </c>
-      <c r="H45" s="7"/>
+      <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="3">
         <v>1024</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>4.8993194165329099E-7</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>6.0427850777549397E-7</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>6.0970749627976105E-8</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <v>4.8574218750000001E-8</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="5">
         <f t="shared" si="0"/>
         <v>1.2552080341585752</v>
       </c>
-      <c r="H46" s="6"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>1024</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>8.2189383517418594E-8</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>8.2884272116990295E-8</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>3.1077241443452302E-8</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <v>3.0610816592261897E-8</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <f t="shared" si="0"/>
         <v>1.015237256078569</v>
       </c>
-      <c r="H47" s="7"/>
+      <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="3">
         <v>1024</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>4.5174844230392103E-6</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>5.0546052599591797E-6</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>4.4689543805803497E-6</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <v>4.3458886718749997E-6</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="5">
         <f t="shared" si="0"/>
         <v>1.0283177315382666</v>
       </c>
-      <c r="H48" s="6"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>1024</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>1.12456812833746E-7</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>9.6357627106564294E-8</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>4.7095889136904699E-8</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <v>3.2442801339285698E-8</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="6">
         <f t="shared" si="0"/>
         <v>1.4516591414032811</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="6">
         <f>GEOMEAN(G42:G49)</f>
         <v>1.2375959136814931</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="3">
         <v>2048</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C50" s="5">
         <v>7.6432091494401198E-8</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>6.7197252064943304E-8</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>5.05219184027777E-8</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <v>4.2914496527777702E-8</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="5">
         <f t="shared" si="0"/>
         <v>1.1772692793931734</v>
       </c>
-      <c r="H50" s="6"/>
+      <c r="H50" s="5"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>2048</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>4.3765628813869401E-8</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>4.3505634595122598E-8</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>1.6238606770833298E-8</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <v>1.6111382378472202E-8</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="6">
         <f t="shared" si="0"/>
         <v>1.0078965534658957</v>
       </c>
-      <c r="H51" s="7"/>
+      <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="3">
         <v>2048</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C52" s="5">
         <v>2.5473722618901001E-7</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>2.29108263738453E-7</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>8.2195638020833305E-8</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <v>5.5829264322916602E-8</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="5">
         <f t="shared" si="0"/>
         <v>1.4722679766190996</v>
       </c>
-      <c r="H52" s="6"/>
+      <c r="H52" s="5"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>2048</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>1.4656559667653499E-7</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>9.5855017813543398E-8</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>1.09986707899305E-7</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>6.1330566406249994E-8</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="6">
         <f t="shared" si="0"/>
         <v>1.7933424447894326</v>
       </c>
-      <c r="H53" s="7"/>
+      <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="3">
         <v>2048</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>4.6150480759226599E-7</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>3.8706503498057502E-7</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>4.1399468315972197E-8</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <v>3.4394531249999998E-8</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G54" s="5">
         <f t="shared" si="0"/>
         <v>1.2036642690390553</v>
       </c>
-      <c r="H54" s="6"/>
+      <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>2048</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>4.8734105399085398E-8</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>4.7193348614705901E-8</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>1.8193901909722199E-8</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>1.6498209635416599E-8</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="6">
         <f t="shared" si="0"/>
         <v>1.1027803811308996</v>
       </c>
-      <c r="H55" s="7"/>
+      <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="3">
         <v>2048</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C56" s="5">
         <v>3.2728683436289398E-6</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>2.3270454645777702E-6</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>3.2878735351562502E-6</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <v>2.68965087890625E-6</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="5">
         <f t="shared" si="0"/>
         <v>1.2224164708295777</v>
       </c>
-      <c r="H56" s="6"/>
+      <c r="H56" s="5"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>2048</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>6.9796870876517494E-8</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>6.1156202314628496E-8</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="11">
         <v>2.5371636284722201E-8</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <v>1.7315809461805499E-8</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <f t="shared" si="0"/>
         <v>1.4652295834443034</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <f>GEOMEAN(G50:G57)</f>
         <v>1.2853092765775598</v>
       </c>
@@ -20715,20 +20913,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fa0ea87a-dbc3-4034-822b-3be66bb1e531" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fa0ea87a-dbc3-4034-822b-3be66bb1e531" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20965,6 +21163,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E14463-0D0F-4755-9C80-F057C9F40301}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E400D861-C791-4665-80C3-5EFD5FFDF0DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -20977,14 +21183,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E14463-0D0F-4755-9C80-F057C9F40301}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/results/TreebeardComparisonResults.xlsx
+++ b/results/TreebeardComparisonResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Copied Files\OldLaptop_E\PhDResearch\treebeard\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57C8093-C156-41E0-B120-A292B9D9C162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AB65BC-7E0F-4717-9124-FAF656AEE80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{04E4BA04-C238-410C-B755-734F8EA30249}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{04E4BA04-C238-410C-B755-734F8EA30249}"/>
   </bookViews>
   <sheets>
     <sheet name="20240313-2 - deep" sheetId="7" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="58">
   <si>
     <t>abalone</t>
   </si>
@@ -224,6 +224,15 @@
   <si>
     <t>AT vs 4060 sched speedup</t>
   </si>
+  <si>
+    <t>Min time</t>
+  </si>
+  <si>
+    <t>Max Time</t>
+  </si>
+  <si>
+    <t>Mean Time</t>
+  </si>
 </sst>
 </file>
 
@@ -329,36 +338,15 @@
     <xf numFmtId="11" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="51">
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -612,6 +600,27 @@
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -746,55 +755,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>'20240313-2 - deep'!$U$11:$U$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16834</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'20240313-2 - deep'!$V$11:$V$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.2722665895124083</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4528827696605262</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4845970411866873</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7820833470428157</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1011295266014534</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.1092226931754987</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -845,55 +810,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>'20240313-2 - deep'!$U$11:$U$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16834</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'20240313-2 - deep'!$W$11:$W$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.3761634552622453</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4358620321136715</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2041243784297411</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.229121755272391</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4945475999661837</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.2280173266677927</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -1230,55 +1151,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>'20240313-2 - deep'!$U$11:$U$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16834</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'20240313-2 - deep'!$X$11:$X$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.3288062814808175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7192906081428734</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0142021403665042</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.752556162309721</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7309627886709156</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7177812959674381</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -1329,55 +1206,11 @@
           <c:xVal>
             <c:numRef>
               <c:f>'20240313-2 - deep'!$U$11:$U$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16834</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>'20240313-2 - deep'!$Y$11:$Y$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.2896531072643902</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1032220719469961</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7401095153145931</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7245301052789499</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7646795878117199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6294229488223917</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
@@ -3707,26 +3540,11 @@
               <c:f>'AMD Results'!$K$5:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>256</c:v>
+                  <c:v>8192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4092</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>16384</c:v>
                 </c:pt>
               </c:numCache>
@@ -3736,27 +3554,12 @@
             <c:numRef>
               <c:f>'AMD Results'!$L$5:$L$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1.1121061041075386</c:v>
+                  <c:v>1.2276748073159514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1563265272444769</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>1.2375959136814931</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.2853092765775598</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>1.2382285124387828</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>1.2276748073159514</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
                   <c:v>1.4650999799498305</c:v>
                 </c:pt>
               </c:numCache>
@@ -3863,7 +3666,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8718,7 +8521,16 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}" name="Table5" displayName="Table5" ref="A1:P57" totalsRowShown="0" headerRowDxfId="50">
-  <autoFilter ref="A1:P57" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}"/>
+  <autoFilter ref="A1:P57" xr:uid="{B2DC67BB-06E4-4502-B5BC-709DF4E7BA0C}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="8192"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A50:P57">
+    <sortCondition ref="A1:A57"/>
+  </sortState>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{E2375FC3-1089-4119-8184-3734B94F546B}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{75838CF2-A86D-4A18-96B2-661BE69343B2}" name="Batch size"/>
@@ -8751,32 +8563,32 @@
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{E2D590CB-B8EC-4A13-AAF2-5488EA5BF7F1}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{6304E35B-EF5B-4F15-AE1E-313B2235BC54}" name="Batch size"/>
-    <tableColumn id="3" xr3:uid="{321E3803-58DF-4042-94C5-066AF42AA77C}" name="RAPIDS (Total)" dataDxfId="38" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{96494333-E5FA-4355-90A6-59C5F9E1F5D4}" name="TB (4060)" dataDxfId="37" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{F2D794E9-FCC1-4E3D-93E6-F3CDAF43106D}" name="TB (AT)" dataDxfId="36" totalsRowDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{321E3803-58DF-4042-94C5-066AF42AA77C}" name="RAPIDS (Total)" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{96494333-E5FA-4355-90A6-59C5F9E1F5D4}" name="TB (4060)" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{F2D794E9-FCC1-4E3D-93E6-F3CDAF43106D}" name="TB (AT)" dataDxfId="34" totalsRowDxfId="33"/>
     <tableColumn id="6" xr3:uid="{E56BDC2A-1548-453C-B973-912294AA8759}" name="Speedup (4060)" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(F50:F57)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{C9F5C755-68BD-4B6A-A488-55B0C9A7521B}" name="Speedup (AT)" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(G50:G57)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{AF39F754-9B25-44A4-A2CA-41B7611C11FE}" name="RAPIDS (kernel)" dataDxfId="35" totalsRowDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{3F4C4175-3133-4FE7-9F20-D1DF972385E0}" name="TB Kernel(4060)" dataDxfId="34" totalsRowDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{55231866-9A4A-4089-9017-7BE297219880}" name="TB Kernel (AT)" dataDxfId="33" totalsRowDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{AF39F754-9B25-44A4-A2CA-41B7611C11FE}" name="RAPIDS (kernel)" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{3F4C4175-3133-4FE7-9F20-D1DF972385E0}" name="TB Kernel(4060)" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{55231866-9A4A-4089-9017-7BE297219880}" name="TB Kernel (AT)" dataDxfId="28" totalsRowDxfId="27"/>
     <tableColumn id="11" xr3:uid="{205F7818-0F37-4ED8-8828-FE9EB5C08490}" name="Speedup (4060)2" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(K50:K57)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{E8859735-00B1-44B3-B48B-431D7F66BC4F}" name="Speedup (AT)2" totalsRowFunction="custom">
       <totalsRowFormula>GEOMEAN(L50:L57)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{CD077731-21C9-44D7-950B-DC5BF85B6B75}" name="Tahoe" dataDxfId="32"/>
-    <tableColumn id="14" xr3:uid="{144131F0-3499-4AE4-9778-DEB3928BAD9D}" name="Speedup (4060)3" dataDxfId="31">
+    <tableColumn id="13" xr3:uid="{CD077731-21C9-44D7-950B-DC5BF85B6B75}" name="Tahoe" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{144131F0-3499-4AE4-9778-DEB3928BAD9D}" name="Speedup (4060)3" dataDxfId="25">
       <calculatedColumnFormula>M2/I2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A4362647-5D8B-4796-860C-729CA410492E}" name="Speedup(AT)" dataDxfId="30">
+    <tableColumn id="15" xr3:uid="{A4362647-5D8B-4796-860C-729CA410492E}" name="Speedup(AT)" dataDxfId="24">
       <calculatedColumnFormula>M2/J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{83BBBE19-393B-4893-834A-216E7C358A2F}" name="AT vs 4060 sched speedup" dataDxfId="6">
+    <tableColumn id="16" xr3:uid="{83BBBE19-393B-4893-834A-216E7C358A2F}" name="AT vs 4060 sched speedup" dataDxfId="23">
       <calculatedColumnFormula>L2/K2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8793,10 +8605,10 @@
     <tableColumn id="3" xr3:uid="{B39D87CE-EFC6-4FA6-9E3A-52B9668CE1D3}" name="Kernel Speedup"/>
     <tableColumn id="4" xr3:uid="{68131D1D-A4DE-40DC-9F74-BE50159B3E4C}" name="AT Total Speedup"/>
     <tableColumn id="5" xr3:uid="{177C0B75-8D84-4646-864A-60F1C1E42851}" name="AT Kernel Speedup"/>
-    <tableColumn id="6" xr3:uid="{5A4BAD27-80A7-46F2-9D76-FAFC3C512964}" name="AT Speedup" dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{5A4BAD27-80A7-46F2-9D76-FAFC3C512964}" name="AT Speedup" dataDxfId="22">
       <calculatedColumnFormula>U3/S3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{0506A446-23B0-444E-A0AE-5FBA3154B7CB}" name="Tahoe Speedup (AT)" dataDxfId="28">
+    <tableColumn id="7" xr3:uid="{0506A446-23B0-444E-A0AE-5FBA3154B7CB}" name="Tahoe Speedup (AT)" dataDxfId="21">
       <calculatedColumnFormula>GEOMEAN(O9:O16)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8805,22 +8617,22 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}" name="Table10" displayName="Table10" ref="A1:O57" totalsRowShown="0" headerRowDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}" name="Table10" displayName="Table10" ref="A1:O57" totalsRowShown="0" headerRowDxfId="20">
   <autoFilter ref="A1:O57" xr:uid="{FDF80652-8CEA-464D-A371-E0AD54FC2D29}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{5E1B41EB-0E5D-4B35-A35A-E5B662D56CE6}" name="Benchmark"/>
     <tableColumn id="2" xr3:uid="{D79CB92D-FB39-4668-8876-3EB4EC741BF6}" name="Batch size"/>
-    <tableColumn id="3" xr3:uid="{B75C0F4F-C491-4756-9B6E-1DB140F2900E}" name="XGB total" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{4FAB59A6-D2A3-4DB9-AD8D-78ED11DA17B3}" name="RAPIDS (Total)" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{F7A6F91F-D155-4A95-AE49-CE95AF33A96E}" name="TB (4060)" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{0A9FEB80-3810-42C7-AF6B-C1D231CD92F9}" name="TB (AT)" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{B75C0F4F-C491-4756-9B6E-1DB140F2900E}" name="XGB total" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{4FAB59A6-D2A3-4DB9-AD8D-78ED11DA17B3}" name="RAPIDS (Total)" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{F7A6F91F-D155-4A95-AE49-CE95AF33A96E}" name="TB (4060)" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{0A9FEB80-3810-42C7-AF6B-C1D231CD92F9}" name="TB (AT)" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{A67EC704-ED8A-4FEA-B68B-1ADE4DDDBDE0}" name="Speedup vs XGB (4060)"/>
     <tableColumn id="8" xr3:uid="{7F009CCD-9B17-49C6-85C3-A50B5020679A}" name="Speedup vs XGB (AT)"/>
     <tableColumn id="9" xr3:uid="{34C5B7E1-C8E0-4539-A7C5-49B8646A0F4E}" name="Speedup (4060)"/>
     <tableColumn id="10" xr3:uid="{CBE1437A-9AB4-41BE-AD8E-9DA09B7301AE}" name="Speedup (AT)"/>
-    <tableColumn id="11" xr3:uid="{D80EF35B-C38D-47B0-A64D-0008726BD6D4}" name="RAPIDS (kernel)" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{92304DC3-B14A-4A19-9491-A5BF46EF5C80}" name="TB Kernel(4060)" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{507D8400-BD7B-416A-8BA8-3D43DD81CDB1}" name="TB Kernel (AT)" dataDxfId="20"/>
+    <tableColumn id="11" xr3:uid="{D80EF35B-C38D-47B0-A64D-0008726BD6D4}" name="RAPIDS (kernel)" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{92304DC3-B14A-4A19-9491-A5BF46EF5C80}" name="TB Kernel(4060)" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{507D8400-BD7B-416A-8BA8-3D43DD81CDB1}" name="TB Kernel (AT)" dataDxfId="13"/>
     <tableColumn id="14" xr3:uid="{2DB16934-2400-46EB-81FA-972C63EDC37C}" name="Speedup (4060)2"/>
     <tableColumn id="15" xr3:uid="{3F759732-037C-4F50-8D7B-263C80C9E3DB}" name="Speedup (AT)2"/>
   </tableColumns>
@@ -8836,7 +8648,7 @@
     <tableColumn id="2" xr3:uid="{E4799277-B388-42C7-A788-6F740C295765}" name="BatchSize"/>
     <tableColumn id="3" xr3:uid="{F4DC01E7-64E1-465D-B058-CABBE8969845}" name="AT Total Time"/>
     <tableColumn id="4" xr3:uid="{153F4080-F85B-4F53-A692-C2E57A7EC900}" name="Full Explore"/>
-    <tableColumn id="5" xr3:uid="{3CAE03F4-F9D1-40E8-83B1-0A40E750F00E}" name="Speedup" dataDxfId="19">
+    <tableColumn id="5" xr3:uid="{3CAE03F4-F9D1-40E8-83B1-0A40E750F00E}" name="Speedup" dataDxfId="12">
       <calculatedColumnFormula>D2/C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8845,19 +8657,28 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53457ACF-C917-4ED6-B048-1BCE586EE816}" name="Table2" displayName="Table2" ref="A1:H57" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
-  <autoFilter ref="A1:H57" xr:uid="{53457ACF-C917-4ED6-B048-1BCE586EE816}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53457ACF-C917-4ED6-B048-1BCE586EE816}" name="Table2" displayName="Table2" ref="A1:H57" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H57" xr:uid="{53457ACF-C917-4ED6-B048-1BCE586EE816}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="8192"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H9">
+    <sortCondition ref="A1:A57"/>
+  </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4D0BF7EC-9E1A-436C-A346-4B38EB4E6B14}" name="Column1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{0B2149D5-D9B1-4F29-8814-E05834263FDC}" name="Column2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{DF94E260-7AB5-43A5-9E34-C9A901FD8D89}" name="Column3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{27D622F2-BF93-46A2-8081-14DF20568545}" name="Column4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{34075E23-72D0-4F47-AC91-2D1280255AFE}" name="Column5" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{D5942594-DD80-4199-82A4-11CC16628EBD}" name="Column6" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{9D1CB8BA-2EAD-4791-B601-75842BCD1D17}" name="Column7" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{4D0BF7EC-9E1A-436C-A346-4B38EB4E6B14}" name="Column1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{0B2149D5-D9B1-4F29-8814-E05834263FDC}" name="Column2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{DF94E260-7AB5-43A5-9E34-C9A901FD8D89}" name="Column3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{27D622F2-BF93-46A2-8081-14DF20568545}" name="Column4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{34075E23-72D0-4F47-AC91-2D1280255AFE}" name="Column5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{D5942594-DD80-4199-82A4-11CC16628EBD}" name="Column6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{9D1CB8BA-2EAD-4791-B601-75842BCD1D17}" name="Column7" dataDxfId="1">
       <calculatedColumnFormula>E2/F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C0BD4DAA-37F0-4BE7-83E0-B3819D0B52D7}" name="Column8" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{C0BD4DAA-37F0-4BE7-83E0-B3819D0B52D7}" name="Column8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9191,7 +9012,7 @@
   <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="J42" sqref="J42:J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9200,8 +9021,9 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="12" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="12" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" customWidth="1"/>
     <col min="15" max="15" width="20.28515625" customWidth="1"/>
     <col min="21" max="21" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -9261,7 +9083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9309,7 +9131,7 @@
       </c>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9357,7 +9179,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9405,7 +9227,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9453,7 +9275,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9501,7 +9323,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9549,7 +9371,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9597,7 +9419,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9644,12 +9466,12 @@
         <v>0</v>
       </c>
       <c r="P9" s="1"/>
-      <c r="V9" s="12" t="s">
+      <c r="V9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="W9" s="12"/>
-    </row>
-    <row r="10" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" spans="1:25" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -9716,7 +9538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -9787,7 +9609,7 @@
         <v>2.2896531072643902</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -9858,7 +9680,7 @@
         <v>2.1032220719469961</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -9929,7 +9751,7 @@
         <v>1.7401095153145931</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -10000,7 +9822,7 @@
         <v>1.7245301052789499</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -10071,7 +9893,7 @@
         <v>1.7646795878117199</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -10142,7 +9964,7 @@
         <v>1.6294229488223917</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -10194,7 +10016,7 @@
         <v>3.77627E-7</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -10246,7 +10068,7 @@
         <v>5.8578999999999998E-8</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -10298,7 +10120,7 @@
         <v>2.2754E-8</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -10350,7 +10172,7 @@
         <v>9.0395999999999998E-8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -10402,7 +10224,7 @@
         <v>8.3516000000000005E-8</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -10454,7 +10276,7 @@
         <v>3.7437E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -10506,7 +10328,7 @@
         <v>2.4204E-8</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -10558,7 +10380,7 @@
         <v>2.1028349000000001E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -10610,7 +10432,7 @@
         <v>1.74565E-7</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -10662,7 +10484,7 @@
         <v>5.4158000000000001E-8</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -10714,7 +10536,7 @@
         <v>2.0081E-8</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -10766,7 +10588,7 @@
         <v>8.2890999999999998E-8</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -10818,7 +10640,7 @@
         <v>7.7073000000000005E-8</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -10870,7 +10692,7 @@
         <v>3.3349999999999998E-8</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -10922,7 +10744,7 @@
         <v>2.1523E-8</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -10974,7 +10796,7 @@
         <v>1.0520264E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -11026,7 +10848,7 @@
         <v>8.7895999999999995E-8</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -11078,7 +10900,7 @@
         <v>5.1994999999999997E-8</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -11130,7 +10952,7 @@
         <v>1.8447E-8</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -11182,7 +11004,7 @@
         <v>8.1903000000000002E-8</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -11234,7 +11056,7 @@
         <v>7.3727999999999997E-8</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -11286,7 +11108,7 @@
         <v>4.2045999999999998E-8</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -11338,7 +11160,7 @@
         <v>1.9741999999999999E-8</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -11390,7 +11212,7 @@
         <v>5.2554980000000003E-6</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -11858,7 +11680,7 @@
         <v>2.6948999999999999E-8</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -11899,18 +11721,18 @@
         <v>5.0763999999999997E-8</v>
       </c>
       <c r="N50" s="1">
-        <f t="shared" ref="N50:N57" si="2">M50/I50</f>
+        <f>M50/I50</f>
         <v>1.5316843682570902</v>
       </c>
       <c r="O50" s="1">
-        <f t="shared" ref="O50:O57" si="3">M50/J50</f>
+        <f>M50/J50</f>
         <v>1.5317266804994552</v>
       </c>
       <c r="P50" s="1">
         <v>5.1080999999999999E-8</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -11951,18 +11773,18 @@
         <v>1.2458E-8</v>
       </c>
       <c r="N51" s="1">
-        <f t="shared" si="2"/>
+        <f>M51/I51</f>
         <v>3.2444200386785762</v>
       </c>
       <c r="O51" s="1">
-        <f t="shared" si="3"/>
+        <f>M51/J51</f>
         <v>3.1511713462330202</v>
       </c>
       <c r="P51" s="1">
         <v>1.6995999999999999E-8</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -12003,18 +11825,18 @@
         <v>8.4972000000000001E-8</v>
       </c>
       <c r="N52" s="1">
-        <f t="shared" si="2"/>
+        <f>M52/I52</f>
         <v>1.6292190417491565</v>
       </c>
       <c r="O52" s="1">
-        <f t="shared" si="3"/>
+        <f>M52/J52</f>
         <v>1.6206087527089112</v>
       </c>
       <c r="P52" s="1">
         <v>8.5039999999999999E-8</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -12055,18 +11877,18 @@
         <v>7.2696000000000005E-8</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" si="2"/>
+        <f>M53/I53</f>
         <v>2.5529730116711544</v>
       </c>
       <c r="O53" s="1">
-        <f t="shared" si="3"/>
+        <f>M53/J53</f>
         <v>2.5518972657379884</v>
       </c>
       <c r="P53" s="1">
         <v>7.3016999999999998E-8</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -12107,18 +11929,18 @@
         <v>3.9261000000000003E-8</v>
       </c>
       <c r="N54" s="1">
-        <f t="shared" si="2"/>
+        <f>M54/I54</f>
         <v>1.348984933503435</v>
       </c>
       <c r="O54" s="1">
-        <f t="shared" si="3"/>
+        <f>M54/J54</f>
         <v>1.3278812270343918</v>
       </c>
       <c r="P54" s="1">
         <v>3.9221999999999999E-8</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -12159,18 +11981,18 @@
         <v>1.5016E-8</v>
       </c>
       <c r="N55" s="1">
-        <f t="shared" si="2"/>
+        <f>M55/I55</f>
         <v>3.5756433980088658</v>
       </c>
       <c r="O55" s="1">
-        <f t="shared" si="3"/>
+        <f>M55/J55</f>
         <v>3.3218553547719294</v>
       </c>
       <c r="P55" s="1">
         <v>1.8848999999999999E-8</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -12211,18 +12033,18 @@
         <v>2.5500039999999998E-6</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="2"/>
+        <f>M56/I56</f>
         <v>1.6098994579691608</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="3"/>
+        <f>M56/J56</f>
         <v>1.5445413951579794</v>
       </c>
       <c r="P56" s="1">
         <v>2.568489E-6</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -12263,11 +12085,11 @@
         <v>1.9133E-8</v>
       </c>
       <c r="N57" s="1">
-        <f t="shared" si="2"/>
+        <f>M57/I57</f>
         <v>4.7790690923874424</v>
       </c>
       <c r="O57" s="1">
-        <f t="shared" si="3"/>
+        <f>M57/J57</f>
         <v>4.4649268415430301</v>
       </c>
       <c r="P57" s="1">
@@ -12291,7 +12113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E012CCA-A5BF-4CA6-9836-3078D3226C07}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -13214,7 +13036,7 @@
         <f t="shared" si="2"/>
         <v>2.0123472715741904</v>
       </c>
-      <c r="X14" s="13" t="s">
+      <c r="X14" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -18288,10 +18110,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5CF882-4256-49F6-8CA1-987C2223D73A}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18304,7 +18126,7 @@
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -18321,7 +18143,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18339,7 +18161,7 @@
         <v>115.87023076923077</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -18362,8 +18184,15 @@
       <c r="I3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3">
+        <f>MIN(Table1[AT Total Time])</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -18387,8 +18216,15 @@
         <f>GEOMEAN(E2:E9)</f>
         <v>93.69821801673973</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4">
+        <f>MAX(Table1[AT Total Time])</f>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -18412,8 +18248,15 @@
         <f>GEOMEAN(E10:E17)</f>
         <v>87.884156689676217</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5">
+        <f>AVERAGE(Table1[AT Total Time])</f>
+        <v>28.714285714285715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -18438,7 +18281,7 @@
         <v>74.236147579764904</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -18463,7 +18306,7 @@
         <v>77.111708343231086</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -18488,7 +18331,7 @@
         <v>84.27330974885237</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -18513,7 +18356,7 @@
         <v>86.480741370761592</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -18538,7 +18381,7 @@
         <v>101.87084508494925</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -18556,7 +18399,7 @@
         <v>86.232428571428571</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -18574,7 +18417,7 @@
         <v>103.71895238095237</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -18592,7 +18435,7 @@
         <v>106.22788235294118</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -18610,7 +18453,7 @@
         <v>65.182285714285712</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -18628,7 +18471,7 @@
         <v>87.405142857142863</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -19398,7 +19241,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L11"/>
+      <selection activeCell="F10" sqref="F10:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19434,7 +19277,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -19454,12 +19297,12 @@
         <v>3.7511393229166597E-8</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G57" si="0">E2/F2</f>
+        <f>E2/F2</f>
         <v>1.0921486527530719</v>
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -19479,12 +19322,12 @@
         <v>9.9772135416666599E-9</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="0"/>
+        <f>E3/F3</f>
         <v>1.2229608482871102</v>
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -19504,7 +19347,7 @@
         <v>5.1667480468750001E-8</v>
       </c>
       <c r="G4" s="5">
-        <f t="shared" si="0"/>
+        <f>E4/F4</f>
         <v>1.062632897037282</v>
       </c>
       <c r="H4" s="5"/>
@@ -19515,7 +19358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -19535,7 +19378,7 @@
         <v>4.9114176432291598E-8</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="0"/>
+        <f>E5/F5</f>
         <v>0.81477676611186245</v>
       </c>
       <c r="H5" s="6"/>
@@ -19546,7 +19389,7 @@
         <v>1.1121061041075386</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -19566,7 +19409,7 @@
         <v>3.1755371093750002E-8</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" si="0"/>
+        <f>E6/F6</f>
         <v>1.265472437918044</v>
       </c>
       <c r="H6" s="5"/>
@@ -19577,7 +19420,7 @@
         <v>1.1563265272444769</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -19597,7 +19440,7 @@
         <v>1.03206380208333E-8</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="0"/>
+        <f>E7/F7</f>
         <v>1.2891894023024768</v>
       </c>
       <c r="H7" s="6"/>
@@ -19608,7 +19451,7 @@
         <v>1.2375959136814931</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -19628,7 +19471,7 @@
         <v>1.89578247070312E-6</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="0"/>
+        <f>E8/F8</f>
         <v>1.7368046232353009</v>
       </c>
       <c r="H8" s="5"/>
@@ -19639,7 +19482,7 @@
         <v>1.2853092765775598</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -19659,7 +19502,7 @@
         <v>1.06343587239583E-8</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="0"/>
+        <f>E9/F9</f>
         <v>1.686435814042474</v>
       </c>
       <c r="H9" s="6">
@@ -19693,7 +19536,7 @@
         <v>2.6419270833333301E-8</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G2:G57" si="0">E10/F10</f>
         <v>1.0105501478560879</v>
       </c>
       <c r="H10" s="5"/>
@@ -19888,7 +19731,7 @@
         <v>1.2276748073159514</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -19913,7 +19756,7 @@
       </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
@@ -19938,7 +19781,7 @@
       </c>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -19963,7 +19806,7 @@
       </c>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -19988,7 +19831,7 @@
       </c>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -20013,7 +19856,7 @@
       </c>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
@@ -20038,7 +19881,7 @@
       </c>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>
@@ -20063,7 +19906,7 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
@@ -20091,7 +19934,7 @@
         <v>1.4650999799498305</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -20116,7 +19959,7 @@
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>2</v>
       </c>
@@ -20141,7 +19984,7 @@
       </c>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>3</v>
       </c>
@@ -20166,7 +20009,7 @@
       </c>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -20191,7 +20034,7 @@
       </c>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -20216,7 +20059,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
@@ -20241,7 +20084,7 @@
       </c>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>7</v>
       </c>
@@ -20266,7 +20109,7 @@
       </c>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
@@ -20294,7 +20137,7 @@
         <v>1.1121061041075386</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
@@ -20319,7 +20162,7 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>2</v>
       </c>
@@ -20344,7 +20187,7 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>3</v>
       </c>
@@ -20369,7 +20212,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
@@ -20394,7 +20237,7 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>5</v>
       </c>
@@ -20419,7 +20262,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -20444,7 +20287,7 @@
       </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>7</v>
       </c>
@@ -20469,7 +20312,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
@@ -20497,7 +20340,7 @@
         <v>1.1563265272444769</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
@@ -20522,7 +20365,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>2</v>
       </c>
@@ -20547,7 +20390,7 @@
       </c>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>3</v>
       </c>
@@ -20572,7 +20415,7 @@
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
@@ -20597,7 +20440,7 @@
       </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>5</v>
       </c>
@@ -20622,7 +20465,7 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>6</v>
       </c>
@@ -20647,7 +20490,7 @@
       </c>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>7</v>
       </c>
@@ -20672,7 +20515,7 @@
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
@@ -20700,7 +20543,7 @@
         <v>1.2375959136814931</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
@@ -20725,7 +20568,7 @@
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>2</v>
       </c>
@@ -20750,7 +20593,7 @@
       </c>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>3</v>
       </c>
@@ -20775,7 +20618,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
@@ -20800,7 +20643,7 @@
       </c>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>5</v>
       </c>
@@ -20825,7 +20668,7 @@
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>6</v>
       </c>
@@ -20850,7 +20693,7 @@
       </c>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>7</v>
       </c>
@@ -20875,7 +20718,7 @@
       </c>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>8</v>
       </c>
@@ -20913,20 +20756,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="fa0ea87a-dbc3-4034-822b-3be66bb1e531" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="fa0ea87a-dbc3-4034-822b-3be66bb1e531" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21163,14 +21006,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E14463-0D0F-4755-9C80-F057C9F40301}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E400D861-C791-4665-80C3-5EFD5FFDF0DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -21183,6 +21018,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E14463-0D0F-4755-9C80-F057C9F40301}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
